--- a/src/test/resources/files/asset_transactions.xlsx
+++ b/src/test/resources/files/asset_transactions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labs\monoliths\fixed-assets\src\test\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFFEE770-FBCD-428E-ABF5-489E28DB3B23}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD438FA8-CB81-405E-8B9A-304F15BEC493}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="885" yWindow="-120" windowWidth="19725" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2003" uniqueCount="951">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1997" uniqueCount="951">
   <si>
     <t>transactionReference</t>
   </si>
@@ -3229,10 +3229,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1001"/>
+  <dimension ref="A1:C998"/>
   <sheetViews>
     <sheetView tabSelected="1" showOutlineSymbols="0" showWhiteSpace="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8205,10 +8205,10 @@
     </row>
     <row r="452" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
-        <v>584</v>
+        <v>702</v>
       </c>
       <c r="B452" t="s">
-        <v>110</v>
+        <v>254</v>
       </c>
       <c r="C452">
         <v>662</v>
@@ -8216,10 +8216,10 @@
     </row>
     <row r="453" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B453" t="s">
-        <v>254</v>
+        <v>14</v>
       </c>
       <c r="C453">
         <v>177</v>
@@ -8227,10 +8227,10 @@
     </row>
     <row r="454" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="B454" t="s">
-        <v>14</v>
+        <v>255</v>
       </c>
       <c r="C454">
         <v>40</v>
@@ -8238,10 +8238,10 @@
     </row>
     <row r="455" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>704</v>
+        <v>497</v>
       </c>
       <c r="B455" t="s">
-        <v>255</v>
+        <v>186</v>
       </c>
       <c r="C455">
         <v>115</v>
@@ -8249,10 +8249,10 @@
     </row>
     <row r="456" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>497</v>
+        <v>705</v>
       </c>
       <c r="B456" t="s">
-        <v>186</v>
+        <v>148</v>
       </c>
       <c r="C456">
         <v>820</v>
@@ -8260,10 +8260,10 @@
     </row>
     <row r="457" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B457" t="s">
-        <v>148</v>
+        <v>65</v>
       </c>
       <c r="C457">
         <v>606</v>
@@ -8271,10 +8271,10 @@
     </row>
     <row r="458" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B458" t="s">
-        <v>65</v>
+        <v>28</v>
       </c>
       <c r="C458">
         <v>838</v>
@@ -8282,10 +8282,10 @@
     </row>
     <row r="459" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>707</v>
+        <v>671</v>
       </c>
       <c r="B459" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="C459">
         <v>907</v>
@@ -8293,10 +8293,10 @@
     </row>
     <row r="460" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>671</v>
+        <v>708</v>
       </c>
       <c r="B460" t="s">
-        <v>39</v>
+        <v>153</v>
       </c>
       <c r="C460">
         <v>265</v>
@@ -8304,10 +8304,10 @@
     </row>
     <row r="461" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B461" t="s">
-        <v>153</v>
+        <v>206</v>
       </c>
       <c r="C461">
         <v>72</v>
@@ -8315,10 +8315,10 @@
     </row>
     <row r="462" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>709</v>
+        <v>593</v>
       </c>
       <c r="B462" t="s">
-        <v>206</v>
+        <v>69</v>
       </c>
       <c r="C462">
         <v>640</v>
@@ -8326,10 +8326,10 @@
     </row>
     <row r="463" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>593</v>
+        <v>371</v>
       </c>
       <c r="B463" t="s">
-        <v>69</v>
+        <v>256</v>
       </c>
       <c r="C463">
         <v>315</v>
@@ -8337,10 +8337,10 @@
     </row>
     <row r="464" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>371</v>
+        <v>690</v>
       </c>
       <c r="B464" t="s">
-        <v>256</v>
+        <v>19</v>
       </c>
       <c r="C464">
         <v>780</v>
@@ -8348,10 +8348,10 @@
     </row>
     <row r="465" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>690</v>
+        <v>710</v>
       </c>
       <c r="B465" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="C465">
         <v>540</v>
@@ -8359,10 +8359,10 @@
     </row>
     <row r="466" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B466" t="s">
-        <v>54</v>
+        <v>158</v>
       </c>
       <c r="C466">
         <v>126</v>
@@ -8370,10 +8370,10 @@
     </row>
     <row r="467" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>711</v>
+        <v>610</v>
       </c>
       <c r="B467" t="s">
-        <v>158</v>
+        <v>33</v>
       </c>
       <c r="C467">
         <v>624</v>
@@ -8381,10 +8381,10 @@
     </row>
     <row r="468" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>610</v>
+        <v>712</v>
       </c>
       <c r="B468" t="s">
-        <v>33</v>
+        <v>191</v>
       </c>
       <c r="C468">
         <v>319</v>
@@ -8392,10 +8392,10 @@
     </row>
     <row r="469" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="B469" t="s">
-        <v>191</v>
+        <v>42</v>
       </c>
       <c r="C469">
         <v>842</v>
@@ -8403,10 +8403,10 @@
     </row>
     <row r="470" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>713</v>
+        <v>348</v>
       </c>
       <c r="B470" t="s">
-        <v>42</v>
+        <v>175</v>
       </c>
       <c r="C470">
         <v>129</v>
@@ -8414,10 +8414,10 @@
     </row>
     <row r="471" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>348</v>
+        <v>714</v>
       </c>
       <c r="B471" t="s">
-        <v>175</v>
+        <v>257</v>
       </c>
       <c r="C471">
         <v>952</v>
@@ -8425,10 +8425,10 @@
     </row>
     <row r="472" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B472" t="s">
-        <v>257</v>
+        <v>62</v>
       </c>
       <c r="C472">
         <v>852</v>
@@ -8436,10 +8436,10 @@
     </row>
     <row r="473" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="B473" t="s">
-        <v>62</v>
+        <v>258</v>
       </c>
       <c r="C473">
         <v>66</v>
@@ -8447,10 +8447,10 @@
     </row>
     <row r="474" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>716</v>
+        <v>493</v>
       </c>
       <c r="B474" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C474">
         <v>265</v>
@@ -8458,10 +8458,10 @@
     </row>
     <row r="475" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>493</v>
+        <v>717</v>
       </c>
       <c r="B475" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C475">
         <v>426</v>
@@ -8469,10 +8469,10 @@
     </row>
     <row r="476" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A476" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="B476" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="C476">
         <v>167</v>
@@ -8480,10 +8480,10 @@
     </row>
     <row r="477" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A477" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B477" t="s">
-        <v>168</v>
+        <v>260</v>
       </c>
       <c r="C477">
         <v>679</v>
@@ -8491,10 +8491,10 @@
     </row>
     <row r="478" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A478" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="B478" t="s">
-        <v>260</v>
+        <v>207</v>
       </c>
       <c r="C478">
         <v>529</v>
@@ -8502,10 +8502,10 @@
     </row>
     <row r="479" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A479" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B479" t="s">
-        <v>207</v>
+        <v>61</v>
       </c>
       <c r="C479">
         <v>974</v>
@@ -8513,10 +8513,10 @@
     </row>
     <row r="480" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A480" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="B480" t="s">
-        <v>61</v>
+        <v>261</v>
       </c>
       <c r="C480">
         <v>660</v>
@@ -8524,10 +8524,10 @@
     </row>
     <row r="481" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A481" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B481" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C481">
         <v>658</v>
@@ -8535,10 +8535,10 @@
     </row>
     <row r="482" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A482" t="s">
-        <v>723</v>
+        <v>576</v>
       </c>
       <c r="B482" t="s">
-        <v>262</v>
+        <v>133</v>
       </c>
       <c r="C482">
         <v>891</v>
@@ -8546,10 +8546,10 @@
     </row>
     <row r="483" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A483" t="s">
-        <v>576</v>
+        <v>647</v>
       </c>
       <c r="B483" t="s">
-        <v>133</v>
+        <v>83</v>
       </c>
       <c r="C483">
         <v>636</v>
@@ -8557,10 +8557,10 @@
     </row>
     <row r="484" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A484" t="s">
-        <v>647</v>
+        <v>687</v>
       </c>
       <c r="B484" t="s">
-        <v>83</v>
+        <v>263</v>
       </c>
       <c r="C484">
         <v>182</v>
@@ -8568,10 +8568,10 @@
     </row>
     <row r="485" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A485" t="s">
-        <v>687</v>
+        <v>724</v>
       </c>
       <c r="B485" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
       <c r="C485">
         <v>761</v>
@@ -8579,10 +8579,10 @@
     </row>
     <row r="486" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="B486" t="s">
-        <v>51</v>
+        <v>147</v>
       </c>
       <c r="C486">
         <v>316</v>
@@ -8590,10 +8590,10 @@
     </row>
     <row r="487" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A487" t="s">
-        <v>693</v>
+        <v>725</v>
       </c>
       <c r="B487" t="s">
-        <v>147</v>
+        <v>63</v>
       </c>
       <c r="C487">
         <v>33</v>
@@ -8601,10 +8601,10 @@
     </row>
     <row r="488" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
-        <v>725</v>
+        <v>597</v>
       </c>
       <c r="B488" t="s">
-        <v>63</v>
+        <v>264</v>
       </c>
       <c r="C488">
         <v>882</v>
@@ -8612,10 +8612,10 @@
     </row>
     <row r="489" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
-        <v>597</v>
+        <v>586</v>
       </c>
       <c r="B489" t="s">
-        <v>264</v>
+        <v>100</v>
       </c>
       <c r="C489">
         <v>770</v>
@@ -8623,10 +8623,10 @@
     </row>
     <row r="490" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
-        <v>586</v>
+        <v>726</v>
       </c>
       <c r="B490" t="s">
-        <v>100</v>
+        <v>47</v>
       </c>
       <c r="C490">
         <v>955</v>
@@ -8634,10 +8634,10 @@
     </row>
     <row r="491" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B491" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C491">
         <v>716</v>
@@ -8645,10 +8645,10 @@
     </row>
     <row r="492" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B492" t="s">
-        <v>18</v>
+        <v>265</v>
       </c>
       <c r="C492">
         <v>512</v>
@@ -8656,10 +8656,10 @@
     </row>
     <row r="493" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="B493" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C493">
         <v>263</v>
@@ -8667,10 +8667,10 @@
     </row>
     <row r="494" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="B494" t="s">
-        <v>262</v>
+        <v>84</v>
       </c>
       <c r="C494">
         <v>1000</v>
@@ -8678,10 +8678,10 @@
     </row>
     <row r="495" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>730</v>
+        <v>507</v>
       </c>
       <c r="B495" t="s">
-        <v>84</v>
+        <v>266</v>
       </c>
       <c r="C495">
         <v>224</v>
@@ -8689,10 +8689,10 @@
     </row>
     <row r="496" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>507</v>
+        <v>731</v>
       </c>
       <c r="B496" t="s">
-        <v>266</v>
+        <v>160</v>
       </c>
       <c r="C496">
         <v>45</v>
@@ -8700,10 +8700,10 @@
     </row>
     <row r="497" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B497" t="s">
-        <v>160</v>
+        <v>217</v>
       </c>
       <c r="C497">
         <v>277</v>
@@ -8711,10 +8711,10 @@
     </row>
     <row r="498" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>732</v>
+        <v>508</v>
       </c>
       <c r="B498" t="s">
-        <v>217</v>
+        <v>94</v>
       </c>
       <c r="C498">
         <v>494</v>
@@ -8722,10 +8722,10 @@
     </row>
     <row r="499" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>508</v>
+        <v>526</v>
       </c>
       <c r="B499" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
       <c r="C499">
         <v>735</v>
@@ -8733,10 +8733,10 @@
     </row>
     <row r="500" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A500" t="s">
-        <v>526</v>
+        <v>466</v>
       </c>
       <c r="B500" t="s">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="C500">
         <v>897</v>
@@ -8744,10 +8744,10 @@
     </row>
     <row r="501" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A501" t="s">
-        <v>466</v>
+        <v>354</v>
       </c>
       <c r="B501" t="s">
-        <v>226</v>
+        <v>120</v>
       </c>
       <c r="C501">
         <v>557</v>
@@ -8755,10 +8755,10 @@
     </row>
     <row r="502" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A502" t="s">
-        <v>354</v>
+        <v>379</v>
       </c>
       <c r="B502" t="s">
-        <v>120</v>
+        <v>202</v>
       </c>
       <c r="C502">
         <v>227</v>
@@ -8766,10 +8766,10 @@
     </row>
     <row r="503" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A503" t="s">
-        <v>379</v>
+        <v>733</v>
       </c>
       <c r="B503" t="s">
-        <v>202</v>
+        <v>267</v>
       </c>
       <c r="C503">
         <v>763</v>
@@ -8777,10 +8777,10 @@
     </row>
     <row r="504" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A504" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B504" t="s">
-        <v>267</v>
+        <v>148</v>
       </c>
       <c r="C504">
         <v>463</v>
@@ -8788,10 +8788,10 @@
     </row>
     <row r="505" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A505" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B505" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C505">
         <v>429</v>
@@ -8799,10 +8799,10 @@
     </row>
     <row r="506" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A506" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="B506" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
       <c r="C506">
         <v>767</v>
@@ -8810,10 +8810,10 @@
     </row>
     <row r="507" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A507" t="s">
-        <v>736</v>
+        <v>464</v>
       </c>
       <c r="B507" t="s">
-        <v>176</v>
+        <v>33</v>
       </c>
       <c r="C507">
         <v>302</v>
@@ -8821,10 +8821,10 @@
     </row>
     <row r="508" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A508" t="s">
-        <v>464</v>
+        <v>737</v>
       </c>
       <c r="B508" t="s">
-        <v>33</v>
+        <v>88</v>
       </c>
       <c r="C508">
         <v>893</v>
@@ -8832,10 +8832,10 @@
     </row>
     <row r="509" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A509" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="B509" t="s">
-        <v>88</v>
+        <v>222</v>
       </c>
       <c r="C509">
         <v>592</v>
@@ -8843,10 +8843,10 @@
     </row>
     <row r="510" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B510" t="s">
-        <v>222</v>
+        <v>268</v>
       </c>
       <c r="C510">
         <v>89</v>
@@ -8854,10 +8854,10 @@
     </row>
     <row r="511" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
-        <v>739</v>
+        <v>593</v>
       </c>
       <c r="B511" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C511">
         <v>328</v>
@@ -8865,10 +8865,10 @@
     </row>
     <row r="512" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
-        <v>593</v>
+        <v>533</v>
       </c>
       <c r="B512" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C512">
         <v>903</v>
@@ -8876,10 +8876,10 @@
     </row>
     <row r="513" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
-        <v>533</v>
+        <v>644</v>
       </c>
       <c r="B513" t="s">
-        <v>268</v>
+        <v>141</v>
       </c>
       <c r="C513">
         <v>201</v>
@@ -8887,10 +8887,10 @@
     </row>
     <row r="514" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
-        <v>644</v>
+        <v>740</v>
       </c>
       <c r="B514" t="s">
-        <v>141</v>
+        <v>239</v>
       </c>
       <c r="C514">
         <v>56</v>
@@ -8898,10 +8898,10 @@
     </row>
     <row r="515" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
-        <v>740</v>
+        <v>350</v>
       </c>
       <c r="B515" t="s">
-        <v>239</v>
+        <v>86</v>
       </c>
       <c r="C515">
         <v>531</v>
@@ -8909,10 +8909,10 @@
     </row>
     <row r="516" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
-        <v>350</v>
+        <v>741</v>
       </c>
       <c r="B516" t="s">
-        <v>86</v>
+        <v>171</v>
       </c>
       <c r="C516">
         <v>615</v>
@@ -8920,10 +8920,10 @@
     </row>
     <row r="517" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
-        <v>741</v>
+        <v>620</v>
       </c>
       <c r="B517" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="C517">
         <v>78</v>
@@ -8931,10 +8931,10 @@
     </row>
     <row r="518" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
-        <v>620</v>
+        <v>742</v>
       </c>
       <c r="B518" t="s">
-        <v>157</v>
+        <v>270</v>
       </c>
       <c r="C518">
         <v>662</v>
@@ -8942,10 +8942,10 @@
     </row>
     <row r="519" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
-        <v>742</v>
+        <v>478</v>
       </c>
       <c r="B519" t="s">
-        <v>270</v>
+        <v>150</v>
       </c>
       <c r="C519">
         <v>836</v>
@@ -8953,10 +8953,10 @@
     </row>
     <row r="520" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
-        <v>478</v>
+        <v>743</v>
       </c>
       <c r="B520" t="s">
-        <v>150</v>
+        <v>213</v>
       </c>
       <c r="C520">
         <v>564</v>
@@ -8964,10 +8964,10 @@
     </row>
     <row r="521" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="B521" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="C521">
         <v>855</v>
@@ -8975,10 +8975,10 @@
     </row>
     <row r="522" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B522" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C522">
         <v>682</v>
@@ -8986,10 +8986,10 @@
     </row>
     <row r="523" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="B523" t="s">
-        <v>272</v>
+        <v>170</v>
       </c>
       <c r="C523">
         <v>495</v>
@@ -8997,10 +8997,10 @@
     </row>
     <row r="524" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B524" t="s">
-        <v>170</v>
+        <v>115</v>
       </c>
       <c r="C524">
         <v>622</v>
@@ -9008,10 +9008,10 @@
     </row>
     <row r="525" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>747</v>
+        <v>664</v>
       </c>
       <c r="B525" t="s">
-        <v>115</v>
+        <v>257</v>
       </c>
       <c r="C525">
         <v>496</v>
@@ -9019,10 +9019,10 @@
     </row>
     <row r="526" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>664</v>
+        <v>748</v>
       </c>
       <c r="B526" t="s">
-        <v>257</v>
+        <v>219</v>
       </c>
       <c r="C526">
         <v>333</v>
@@ -9030,10 +9030,10 @@
     </row>
     <row r="527" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B527" t="s">
-        <v>219</v>
+        <v>273</v>
       </c>
       <c r="C527">
         <v>326</v>
@@ -9041,10 +9041,10 @@
     </row>
     <row r="528" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>749</v>
+        <v>662</v>
       </c>
       <c r="B528" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C528">
         <v>492</v>
@@ -9052,10 +9052,10 @@
     </row>
     <row r="529" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>662</v>
+        <v>750</v>
       </c>
       <c r="B529" t="s">
-        <v>274</v>
+        <v>157</v>
       </c>
       <c r="C529">
         <v>645</v>
@@ -9063,10 +9063,10 @@
     </row>
     <row r="530" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>750</v>
+        <v>703</v>
       </c>
       <c r="B530" t="s">
-        <v>157</v>
+        <v>15</v>
       </c>
       <c r="C530">
         <v>89</v>
@@ -9074,10 +9074,10 @@
     </row>
     <row r="531" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>703</v>
+        <v>648</v>
       </c>
       <c r="B531" t="s">
-        <v>15</v>
+        <v>275</v>
       </c>
       <c r="C531">
         <v>828</v>
@@ -9085,10 +9085,10 @@
     </row>
     <row r="532" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>648</v>
+        <v>623</v>
       </c>
       <c r="B532" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C532">
         <v>438</v>
@@ -9096,10 +9096,10 @@
     </row>
     <row r="533" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>623</v>
+        <v>582</v>
       </c>
       <c r="B533" t="s">
-        <v>276</v>
+        <v>9</v>
       </c>
       <c r="C533">
         <v>259</v>
@@ -9107,10 +9107,10 @@
     </row>
     <row r="534" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>582</v>
+        <v>595</v>
       </c>
       <c r="B534" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C534">
         <v>139</v>
@@ -9118,10 +9118,10 @@
     </row>
     <row r="535" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>595</v>
+        <v>751</v>
       </c>
       <c r="B535" t="s">
-        <v>33</v>
+        <v>157</v>
       </c>
       <c r="C535">
         <v>285</v>
@@ -9129,10 +9129,10 @@
     </row>
     <row r="536" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B536" t="s">
-        <v>157</v>
+        <v>277</v>
       </c>
       <c r="C536">
         <v>608</v>
@@ -9140,10 +9140,10 @@
     </row>
     <row r="537" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>752</v>
+        <v>654</v>
       </c>
       <c r="B537" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C537">
         <v>631</v>
@@ -9151,10 +9151,10 @@
     </row>
     <row r="538" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>654</v>
+        <v>753</v>
       </c>
       <c r="B538" t="s">
-        <v>278</v>
+        <v>6</v>
       </c>
       <c r="C538">
         <v>954</v>
@@ -9162,10 +9162,10 @@
     </row>
     <row r="539" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B539" t="s">
-        <v>6</v>
+        <v>207</v>
       </c>
       <c r="C539">
         <v>236</v>
@@ -9173,10 +9173,10 @@
     </row>
     <row r="540" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>754</v>
+        <v>612</v>
       </c>
       <c r="B540" t="s">
-        <v>207</v>
+        <v>279</v>
       </c>
       <c r="C540">
         <v>303</v>
@@ -9184,10 +9184,10 @@
     </row>
     <row r="541" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A541" t="s">
-        <v>612</v>
+        <v>459</v>
       </c>
       <c r="B541" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C541">
         <v>800</v>
@@ -9195,10 +9195,10 @@
     </row>
     <row r="542" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A542" t="s">
-        <v>459</v>
+        <v>755</v>
       </c>
       <c r="B542" t="s">
-        <v>280</v>
+        <v>32</v>
       </c>
       <c r="C542">
         <v>756</v>
@@ -9206,10 +9206,10 @@
     </row>
     <row r="543" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A543" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B543" t="s">
-        <v>32</v>
+        <v>92</v>
       </c>
       <c r="C543">
         <v>289</v>
@@ -9217,10 +9217,10 @@
     </row>
     <row r="544" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A544" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B544" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="C544">
         <v>776</v>
@@ -9228,10 +9228,10 @@
     </row>
     <row r="545" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A545" t="s">
-        <v>757</v>
+        <v>556</v>
       </c>
       <c r="B545" t="s">
-        <v>26</v>
+        <v>223</v>
       </c>
       <c r="C545">
         <v>979</v>
@@ -9239,10 +9239,10 @@
     </row>
     <row r="546" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A546" t="s">
-        <v>556</v>
+        <v>758</v>
       </c>
       <c r="B546" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C546">
         <v>89</v>
@@ -9250,10 +9250,10 @@
     </row>
     <row r="547" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A547" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B547" t="s">
-        <v>205</v>
+        <v>281</v>
       </c>
       <c r="C547">
         <v>63</v>
@@ -9261,10 +9261,10 @@
     </row>
     <row r="548" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A548" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B548" t="s">
-        <v>281</v>
+        <v>44</v>
       </c>
       <c r="C548">
         <v>978</v>
@@ -9272,10 +9272,10 @@
     </row>
     <row r="549" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A549" t="s">
-        <v>760</v>
+        <v>627</v>
       </c>
       <c r="B549" t="s">
-        <v>44</v>
+        <v>77</v>
       </c>
       <c r="C549">
         <v>520</v>
@@ -9283,10 +9283,10 @@
     </row>
     <row r="550" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A550" t="s">
-        <v>627</v>
+        <v>588</v>
       </c>
       <c r="B550" t="s">
-        <v>77</v>
+        <v>230</v>
       </c>
       <c r="C550">
         <v>472</v>
@@ -9294,10 +9294,10 @@
     </row>
     <row r="551" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>588</v>
+        <v>761</v>
       </c>
       <c r="B551" t="s">
-        <v>230</v>
+        <v>25</v>
       </c>
       <c r="C551">
         <v>104</v>
@@ -9305,10 +9305,10 @@
     </row>
     <row r="552" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B552" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C552">
         <v>758</v>
@@ -9316,10 +9316,10 @@
     </row>
     <row r="553" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
-        <v>762</v>
+        <v>417</v>
       </c>
       <c r="B553" t="s">
-        <v>13</v>
+        <v>257</v>
       </c>
       <c r="C553">
         <v>224</v>
@@ -9327,10 +9327,10 @@
     </row>
     <row r="554" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>417</v>
+        <v>763</v>
       </c>
       <c r="B554" t="s">
-        <v>257</v>
+        <v>178</v>
       </c>
       <c r="C554">
         <v>586</v>
@@ -9338,10 +9338,10 @@
     </row>
     <row r="555" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>763</v>
+        <v>686</v>
       </c>
       <c r="B555" t="s">
-        <v>178</v>
+        <v>245</v>
       </c>
       <c r="C555">
         <v>213</v>
@@ -9349,10 +9349,10 @@
     </row>
     <row r="556" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="B556" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="C556">
         <v>381</v>
@@ -9360,10 +9360,10 @@
     </row>
     <row r="557" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B557" t="s">
-        <v>281</v>
+        <v>205</v>
       </c>
       <c r="C557">
         <v>1000</v>
@@ -9371,10 +9371,10 @@
     </row>
     <row r="558" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B558" t="s">
-        <v>205</v>
+        <v>216</v>
       </c>
       <c r="C558">
         <v>582</v>
@@ -9382,10 +9382,10 @@
     </row>
     <row r="559" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B559" t="s">
-        <v>216</v>
+        <v>32</v>
       </c>
       <c r="C559">
         <v>427</v>
@@ -9393,10 +9393,10 @@
     </row>
     <row r="560" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B560" t="s">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="C560">
         <v>583</v>
@@ -9404,10 +9404,10 @@
     </row>
     <row r="561" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B561" t="s">
-        <v>73</v>
+        <v>88</v>
       </c>
       <c r="C561">
         <v>404</v>
@@ -9415,10 +9415,10 @@
     </row>
     <row r="562" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B562" t="s">
-        <v>88</v>
+        <v>260</v>
       </c>
       <c r="C562">
         <v>649</v>
@@ -9426,10 +9426,10 @@
     </row>
     <row r="563" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B563" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C563">
         <v>153</v>
@@ -9437,10 +9437,10 @@
     </row>
     <row r="564" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B564" t="s">
-        <v>264</v>
+        <v>163</v>
       </c>
       <c r="C564">
         <v>798</v>
@@ -9448,10 +9448,10 @@
     </row>
     <row r="565" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>772</v>
+        <v>575</v>
       </c>
       <c r="B565" t="s">
-        <v>163</v>
+        <v>24</v>
       </c>
       <c r="C565">
         <v>96</v>
@@ -9459,10 +9459,10 @@
     </row>
     <row r="566" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>575</v>
+        <v>773</v>
       </c>
       <c r="B566" t="s">
-        <v>24</v>
+        <v>282</v>
       </c>
       <c r="C566">
         <v>70</v>
@@ -9470,10 +9470,10 @@
     </row>
     <row r="567" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>773</v>
+        <v>379</v>
       </c>
       <c r="B567" t="s">
-        <v>282</v>
+        <v>23</v>
       </c>
       <c r="C567">
         <v>839</v>
@@ -9481,10 +9481,10 @@
     </row>
     <row r="568" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>379</v>
+        <v>774</v>
       </c>
       <c r="B568" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="C568">
         <v>956</v>
@@ -9492,10 +9492,10 @@
     </row>
     <row r="569" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="B569" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C569">
         <v>217</v>
@@ -9503,10 +9503,10 @@
     </row>
     <row r="570" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>775</v>
+        <v>538</v>
       </c>
       <c r="B570" t="s">
-        <v>284</v>
+        <v>186</v>
       </c>
       <c r="C570">
         <v>610</v>
@@ -9514,10 +9514,10 @@
     </row>
     <row r="571" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>538</v>
+        <v>702</v>
       </c>
       <c r="B571" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="C571">
         <v>142</v>
@@ -9525,10 +9525,10 @@
     </row>
     <row r="572" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>702</v>
+        <v>541</v>
       </c>
       <c r="B572" t="s">
-        <v>81</v>
+        <v>12</v>
       </c>
       <c r="C572">
         <v>217</v>
@@ -9536,10 +9536,10 @@
     </row>
     <row r="573" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>541</v>
+        <v>602</v>
       </c>
       <c r="B573" t="s">
-        <v>12</v>
+        <v>285</v>
       </c>
       <c r="C573">
         <v>32</v>
@@ -9547,10 +9547,10 @@
     </row>
     <row r="574" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>602</v>
+        <v>730</v>
       </c>
       <c r="B574" t="s">
-        <v>285</v>
+        <v>216</v>
       </c>
       <c r="C574">
         <v>683</v>
@@ -9558,10 +9558,10 @@
     </row>
     <row r="575" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>730</v>
+        <v>692</v>
       </c>
       <c r="B575" t="s">
-        <v>216</v>
+        <v>131</v>
       </c>
       <c r="C575">
         <v>166</v>
@@ -9569,10 +9569,10 @@
     </row>
     <row r="576" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>692</v>
+        <v>625</v>
       </c>
       <c r="B576" t="s">
-        <v>131</v>
+        <v>181</v>
       </c>
       <c r="C576">
         <v>647</v>
@@ -9580,10 +9580,10 @@
     </row>
     <row r="577" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>625</v>
+        <v>776</v>
       </c>
       <c r="B577" t="s">
-        <v>181</v>
+        <v>40</v>
       </c>
       <c r="C577">
         <v>223</v>
@@ -9591,10 +9591,10 @@
     </row>
     <row r="578" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>776</v>
+        <v>635</v>
       </c>
       <c r="B578" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C578">
         <v>66</v>
@@ -9602,10 +9602,10 @@
     </row>
     <row r="579" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>635</v>
+        <v>369</v>
       </c>
       <c r="B579" t="s">
-        <v>47</v>
+        <v>244</v>
       </c>
       <c r="C579">
         <v>193</v>
@@ -9613,10 +9613,10 @@
     </row>
     <row r="580" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A580" t="s">
-        <v>369</v>
+        <v>777</v>
       </c>
       <c r="B580" t="s">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="C580">
         <v>268</v>
@@ -9624,10 +9624,10 @@
     </row>
     <row r="581" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A581" t="s">
-        <v>777</v>
+        <v>437</v>
       </c>
       <c r="B581" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C581">
         <v>745</v>
@@ -9635,10 +9635,10 @@
     </row>
     <row r="582" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A582" t="s">
-        <v>437</v>
+        <v>695</v>
       </c>
       <c r="B582" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="C582">
         <v>673</v>
@@ -9646,10 +9646,10 @@
     </row>
     <row r="583" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A583" t="s">
-        <v>695</v>
+        <v>778</v>
       </c>
       <c r="B583" t="s">
-        <v>288</v>
+        <v>194</v>
       </c>
       <c r="C583">
         <v>381</v>
@@ -9657,10 +9657,10 @@
     </row>
     <row r="584" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A584" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="B584" t="s">
-        <v>194</v>
+        <v>289</v>
       </c>
       <c r="C584">
         <v>417</v>
@@ -9668,10 +9668,10 @@
     </row>
     <row r="585" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A585" t="s">
-        <v>779</v>
+        <v>497</v>
       </c>
       <c r="B585" t="s">
-        <v>289</v>
+        <v>107</v>
       </c>
       <c r="C585">
         <v>2</v>
@@ -9679,10 +9679,10 @@
     </row>
     <row r="586" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A586" t="s">
-        <v>497</v>
+        <v>780</v>
       </c>
       <c r="B586" t="s">
-        <v>107</v>
+        <v>290</v>
       </c>
       <c r="C586">
         <v>780</v>
@@ -9690,10 +9690,10 @@
     </row>
     <row r="587" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A587" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B587" t="s">
-        <v>290</v>
+        <v>243</v>
       </c>
       <c r="C587">
         <v>396</v>
@@ -9701,10 +9701,10 @@
     </row>
     <row r="588" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A588" t="s">
-        <v>781</v>
+        <v>447</v>
       </c>
       <c r="B588" t="s">
-        <v>243</v>
+        <v>55</v>
       </c>
       <c r="C588">
         <v>177</v>
@@ -9712,10 +9712,10 @@
     </row>
     <row r="589" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A589" t="s">
-        <v>447</v>
+        <v>491</v>
       </c>
       <c r="B589" t="s">
-        <v>55</v>
+        <v>214</v>
       </c>
       <c r="C589">
         <v>569</v>
@@ -9723,10 +9723,10 @@
     </row>
     <row r="590" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>491</v>
+        <v>782</v>
       </c>
       <c r="B590" t="s">
-        <v>214</v>
+        <v>41</v>
       </c>
       <c r="C590">
         <v>737</v>
@@ -9734,10 +9734,10 @@
     </row>
     <row r="591" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="B591" t="s">
-        <v>41</v>
+        <v>212</v>
       </c>
       <c r="C591">
         <v>871</v>
@@ -9745,10 +9745,10 @@
     </row>
     <row r="592" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B592" t="s">
-        <v>212</v>
+        <v>62</v>
       </c>
       <c r="C592">
         <v>147</v>
@@ -9756,10 +9756,10 @@
     </row>
     <row r="593" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
-        <v>784</v>
+        <v>354</v>
       </c>
       <c r="B593" t="s">
-        <v>62</v>
+        <v>224</v>
       </c>
       <c r="C593">
         <v>852</v>
@@ -9767,10 +9767,10 @@
     </row>
     <row r="594" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
-        <v>354</v>
+        <v>694</v>
       </c>
       <c r="B594" t="s">
-        <v>224</v>
+        <v>162</v>
       </c>
       <c r="C594">
         <v>902</v>
@@ -9778,10 +9778,10 @@
     </row>
     <row r="595" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
-        <v>694</v>
+        <v>785</v>
       </c>
       <c r="B595" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="C595">
         <v>580</v>
@@ -9789,10 +9789,10 @@
     </row>
     <row r="596" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="B596" t="s">
-        <v>172</v>
+        <v>152</v>
       </c>
       <c r="C596">
         <v>853</v>
@@ -9800,10 +9800,10 @@
     </row>
     <row r="597" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
-        <v>786</v>
+        <v>493</v>
       </c>
       <c r="B597" t="s">
-        <v>152</v>
+        <v>291</v>
       </c>
       <c r="C597">
         <v>711</v>
@@ -9811,10 +9811,10 @@
     </row>
     <row r="598" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>493</v>
+        <v>787</v>
       </c>
       <c r="B598" t="s">
-        <v>291</v>
+        <v>273</v>
       </c>
       <c r="C598">
         <v>85</v>
@@ -9822,10 +9822,10 @@
     </row>
     <row r="599" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>787</v>
+        <v>584</v>
       </c>
       <c r="B599" t="s">
-        <v>273</v>
+        <v>86</v>
       </c>
       <c r="C599">
         <v>388</v>
@@ -9833,10 +9833,10 @@
     </row>
     <row r="600" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>584</v>
+        <v>687</v>
       </c>
       <c r="B600" t="s">
-        <v>86</v>
+        <v>292</v>
       </c>
       <c r="C600">
         <v>833</v>
@@ -9844,10 +9844,10 @@
     </row>
     <row r="601" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>687</v>
+        <v>431</v>
       </c>
       <c r="B601" t="s">
-        <v>292</v>
+        <v>164</v>
       </c>
       <c r="C601">
         <v>528</v>
@@ -9855,10 +9855,10 @@
     </row>
     <row r="602" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>431</v>
+        <v>642</v>
       </c>
       <c r="B602" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="C602">
         <v>538</v>
@@ -9866,10 +9866,10 @@
     </row>
     <row r="603" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>642</v>
+        <v>497</v>
       </c>
       <c r="B603" t="s">
-        <v>141</v>
+        <v>293</v>
       </c>
       <c r="C603">
         <v>393</v>
@@ -9877,10 +9877,10 @@
     </row>
     <row r="604" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>497</v>
+        <v>719</v>
       </c>
       <c r="B604" t="s">
-        <v>293</v>
+        <v>47</v>
       </c>
       <c r="C604">
         <v>827</v>
@@ -9888,10 +9888,10 @@
     </row>
     <row r="605" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>719</v>
+        <v>788</v>
       </c>
       <c r="B605" t="s">
-        <v>47</v>
+        <v>272</v>
       </c>
       <c r="C605">
         <v>970</v>
@@ -9899,10 +9899,10 @@
     </row>
     <row r="606" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>788</v>
+        <v>434</v>
       </c>
       <c r="B606" t="s">
-        <v>272</v>
+        <v>19</v>
       </c>
       <c r="C606">
         <v>151</v>
@@ -9910,10 +9910,10 @@
     </row>
     <row r="607" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>434</v>
+        <v>789</v>
       </c>
       <c r="B607" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="C607">
         <v>50</v>
@@ -9921,10 +9921,10 @@
     </row>
     <row r="608" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="B608" t="s">
-        <v>102</v>
+        <v>74</v>
       </c>
       <c r="C608">
         <v>693</v>
@@ -9932,10 +9932,10 @@
     </row>
     <row r="609" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B609" t="s">
-        <v>74</v>
+        <v>172</v>
       </c>
       <c r="C609">
         <v>807</v>
@@ -9943,10 +9943,10 @@
     </row>
     <row r="610" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>791</v>
+        <v>405</v>
       </c>
       <c r="B610" t="s">
-        <v>172</v>
+        <v>119</v>
       </c>
       <c r="C610">
         <v>79</v>
@@ -9954,10 +9954,10 @@
     </row>
     <row r="611" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>405</v>
+        <v>792</v>
       </c>
       <c r="B611" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="C611">
         <v>102</v>
@@ -9965,10 +9965,10 @@
     </row>
     <row r="612" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B612" t="s">
-        <v>22</v>
+        <v>294</v>
       </c>
       <c r="C612">
         <v>257</v>
@@ -9976,10 +9976,10 @@
     </row>
     <row r="613" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B613" t="s">
-        <v>294</v>
+        <v>62</v>
       </c>
       <c r="C613">
         <v>801</v>
@@ -9987,10 +9987,10 @@
     </row>
     <row r="614" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="B614" t="s">
-        <v>62</v>
+        <v>23</v>
       </c>
       <c r="C614">
         <v>913</v>
@@ -9998,10 +9998,10 @@
     </row>
     <row r="615" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
-        <v>795</v>
+        <v>760</v>
       </c>
       <c r="B615" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="C615">
         <v>185</v>
@@ -10009,10 +10009,10 @@
     </row>
     <row r="616" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>760</v>
+        <v>796</v>
       </c>
       <c r="B616" t="s">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="C616">
         <v>905</v>
@@ -10020,10 +10020,10 @@
     </row>
     <row r="617" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>796</v>
+        <v>565</v>
       </c>
       <c r="B617" t="s">
-        <v>103</v>
+        <v>158</v>
       </c>
       <c r="C617">
         <v>501</v>
@@ -10031,10 +10031,10 @@
     </row>
     <row r="618" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>565</v>
+        <v>656</v>
       </c>
       <c r="B618" t="s">
-        <v>158</v>
+        <v>295</v>
       </c>
       <c r="C618">
         <v>767</v>
@@ -10042,10 +10042,10 @@
     </row>
     <row r="619" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="B619" t="s">
-        <v>295</v>
+        <v>66</v>
       </c>
       <c r="C619">
         <v>389</v>
@@ -10053,10 +10053,10 @@
     </row>
     <row r="620" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A620" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="B620" t="s">
-        <v>66</v>
+        <v>289</v>
       </c>
       <c r="C620">
         <v>857</v>
@@ -10064,10 +10064,10 @@
     </row>
     <row r="621" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A621" t="s">
-        <v>524</v>
+        <v>797</v>
       </c>
       <c r="B621" t="s">
-        <v>289</v>
+        <v>121</v>
       </c>
       <c r="C621">
         <v>297</v>
@@ -10075,10 +10075,10 @@
     </row>
     <row r="622" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A622" t="s">
-        <v>797</v>
+        <v>456</v>
       </c>
       <c r="B622" t="s">
-        <v>121</v>
+        <v>97</v>
       </c>
       <c r="C622">
         <v>64</v>
@@ -10086,10 +10086,10 @@
     </row>
     <row r="623" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A623" t="s">
-        <v>456</v>
+        <v>541</v>
       </c>
       <c r="B623" t="s">
-        <v>97</v>
+        <v>291</v>
       </c>
       <c r="C623">
         <v>487</v>
@@ -10097,10 +10097,10 @@
     </row>
     <row r="624" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A624" t="s">
-        <v>541</v>
+        <v>798</v>
       </c>
       <c r="B624" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C624">
         <v>326</v>
@@ -10108,10 +10108,10 @@
     </row>
     <row r="625" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A625" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="B625" t="s">
-        <v>275</v>
+        <v>118</v>
       </c>
       <c r="C625">
         <v>987</v>
@@ -10119,10 +10119,10 @@
     </row>
     <row r="626" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A626" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B626" t="s">
-        <v>118</v>
+        <v>90</v>
       </c>
       <c r="C626">
         <v>345</v>
@@ -10130,10 +10130,10 @@
     </row>
     <row r="627" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A627" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B627" t="s">
-        <v>90</v>
+        <v>296</v>
       </c>
       <c r="C627">
         <v>219</v>
@@ -10141,10 +10141,10 @@
     </row>
     <row r="628" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A628" t="s">
-        <v>801</v>
+        <v>414</v>
       </c>
       <c r="B628" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C628">
         <v>274</v>
@@ -10152,10 +10152,10 @@
     </row>
     <row r="629" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A629" t="s">
-        <v>414</v>
+        <v>748</v>
       </c>
       <c r="B629" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C629">
         <v>422</v>
@@ -10163,10 +10163,10 @@
     </row>
     <row r="630" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A630" t="s">
-        <v>748</v>
+        <v>575</v>
       </c>
       <c r="B630" t="s">
-        <v>298</v>
+        <v>251</v>
       </c>
       <c r="C630">
         <v>585</v>
@@ -10174,10 +10174,10 @@
     </row>
     <row r="631" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>575</v>
+        <v>802</v>
       </c>
       <c r="B631" t="s">
-        <v>251</v>
+        <v>206</v>
       </c>
       <c r="C631">
         <v>415</v>
@@ -10185,10 +10185,10 @@
     </row>
     <row r="632" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A632" t="s">
-        <v>802</v>
+        <v>396</v>
       </c>
       <c r="B632" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C632">
         <v>739</v>
@@ -10196,10 +10196,10 @@
     </row>
     <row r="633" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A633" t="s">
-        <v>396</v>
+        <v>803</v>
       </c>
       <c r="B633" t="s">
-        <v>204</v>
+        <v>238</v>
       </c>
       <c r="C633">
         <v>110</v>
@@ -10207,10 +10207,10 @@
     </row>
     <row r="634" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A634" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="B634" t="s">
-        <v>238</v>
+        <v>270</v>
       </c>
       <c r="C634">
         <v>438</v>
@@ -10218,10 +10218,10 @@
     </row>
     <row r="635" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A635" t="s">
-        <v>804</v>
+        <v>766</v>
       </c>
       <c r="B635" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="C635">
         <v>854</v>
@@ -10229,10 +10229,10 @@
     </row>
     <row r="636" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A636" t="s">
-        <v>766</v>
+        <v>537</v>
       </c>
       <c r="B636" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="C636">
         <v>39</v>
@@ -10240,10 +10240,10 @@
     </row>
     <row r="637" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A637" t="s">
-        <v>537</v>
+        <v>805</v>
       </c>
       <c r="B637" t="s">
-        <v>284</v>
+        <v>100</v>
       </c>
       <c r="C637">
         <v>960</v>
@@ -10251,10 +10251,10 @@
     </row>
     <row r="638" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A638" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B638" t="s">
-        <v>100</v>
+        <v>160</v>
       </c>
       <c r="C638">
         <v>700</v>
@@ -10262,10 +10262,10 @@
     </row>
     <row r="639" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A639" t="s">
-        <v>806</v>
+        <v>540</v>
       </c>
       <c r="B639" t="s">
-        <v>160</v>
+        <v>59</v>
       </c>
       <c r="C639">
         <v>440</v>
@@ -10273,10 +10273,10 @@
     </row>
     <row r="640" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A640" t="s">
-        <v>540</v>
+        <v>477</v>
       </c>
       <c r="B640" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C640">
         <v>448</v>
@@ -10284,10 +10284,10 @@
     </row>
     <row r="641" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A641" t="s">
-        <v>477</v>
+        <v>807</v>
       </c>
       <c r="B641" t="s">
-        <v>91</v>
+        <v>299</v>
       </c>
       <c r="C641">
         <v>738</v>
@@ -10295,10 +10295,10 @@
     </row>
     <row r="642" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A642" t="s">
-        <v>807</v>
+        <v>577</v>
       </c>
       <c r="B642" t="s">
-        <v>299</v>
+        <v>242</v>
       </c>
       <c r="C642">
         <v>403</v>
@@ -10306,10 +10306,10 @@
     </row>
     <row r="643" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A643" t="s">
-        <v>577</v>
+        <v>808</v>
       </c>
       <c r="B643" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="C643">
         <v>270</v>
@@ -10317,10 +10317,10 @@
     </row>
     <row r="644" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A644" t="s">
-        <v>808</v>
+        <v>614</v>
       </c>
       <c r="B644" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C644">
         <v>130</v>
@@ -10328,10 +10328,10 @@
     </row>
     <row r="645" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A645" t="s">
-        <v>614</v>
+        <v>409</v>
       </c>
       <c r="B645" t="s">
-        <v>254</v>
+        <v>204</v>
       </c>
       <c r="C645">
         <v>173</v>
@@ -10339,10 +10339,10 @@
     </row>
     <row r="646" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A646" t="s">
-        <v>409</v>
+        <v>809</v>
       </c>
       <c r="B646" t="s">
-        <v>204</v>
+        <v>138</v>
       </c>
       <c r="C646">
         <v>435</v>
@@ -10350,10 +10350,10 @@
     </row>
     <row r="647" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A647" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B647" t="s">
-        <v>138</v>
+        <v>300</v>
       </c>
       <c r="C647">
         <v>673</v>
@@ -10361,10 +10361,10 @@
     </row>
     <row r="648" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A648" t="s">
-        <v>810</v>
+        <v>432</v>
       </c>
       <c r="B648" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C648">
         <v>250</v>
@@ -10372,10 +10372,10 @@
     </row>
     <row r="649" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
-        <v>432</v>
+        <v>381</v>
       </c>
       <c r="B649" t="s">
-        <v>301</v>
+        <v>139</v>
       </c>
       <c r="C649">
         <v>290</v>
@@ -10383,10 +10383,10 @@
     </row>
     <row r="650" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
-        <v>381</v>
+        <v>811</v>
       </c>
       <c r="B650" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="C650">
         <v>909</v>
@@ -10394,10 +10394,10 @@
     </row>
     <row r="651" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B651" t="s">
-        <v>149</v>
+        <v>302</v>
       </c>
       <c r="C651">
         <v>453</v>
@@ -10405,10 +10405,10 @@
     </row>
     <row r="652" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="B652" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C652">
         <v>691</v>
@@ -10416,10 +10416,10 @@
     </row>
     <row r="653" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B653" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="C653">
         <v>2</v>
@@ -10427,10 +10427,10 @@
     </row>
     <row r="654" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B654" t="s">
-        <v>183</v>
+        <v>262</v>
       </c>
       <c r="C654">
         <v>2</v>
@@ -10438,10 +10438,10 @@
     </row>
     <row r="655" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
-        <v>815</v>
+        <v>415</v>
       </c>
       <c r="B655" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="C655">
         <v>612</v>
@@ -10449,10 +10449,10 @@
     </row>
     <row r="656" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>415</v>
+        <v>816</v>
       </c>
       <c r="B656" t="s">
-        <v>302</v>
+        <v>133</v>
       </c>
       <c r="C656">
         <v>640</v>
@@ -10460,10 +10460,10 @@
     </row>
     <row r="657" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="B657" t="s">
-        <v>133</v>
+        <v>303</v>
       </c>
       <c r="C657">
         <v>675</v>
@@ -10471,10 +10471,10 @@
     </row>
     <row r="658" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B658" t="s">
-        <v>303</v>
+        <v>12</v>
       </c>
       <c r="C658">
         <v>923</v>
@@ -10482,10 +10482,10 @@
     </row>
     <row r="659" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>818</v>
+        <v>348</v>
       </c>
       <c r="B659" t="s">
-        <v>12</v>
+        <v>257</v>
       </c>
       <c r="C659">
         <v>938</v>
@@ -10493,10 +10493,10 @@
     </row>
     <row r="660" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>348</v>
+        <v>647</v>
       </c>
       <c r="B660" t="s">
-        <v>257</v>
+        <v>15</v>
       </c>
       <c r="C660">
         <v>623</v>
@@ -10504,10 +10504,10 @@
     </row>
     <row r="661" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>647</v>
+        <v>396</v>
       </c>
       <c r="B661" t="s">
-        <v>15</v>
+        <v>185</v>
       </c>
       <c r="C661">
         <v>6</v>
@@ -10515,10 +10515,10 @@
     </row>
     <row r="662" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>396</v>
+        <v>628</v>
       </c>
       <c r="B662" t="s">
-        <v>185</v>
+        <v>26</v>
       </c>
       <c r="C662">
         <v>394</v>
@@ -10526,10 +10526,10 @@
     </row>
     <row r="663" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>628</v>
+        <v>482</v>
       </c>
       <c r="B663" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
       <c r="C663">
         <v>766</v>
@@ -10537,10 +10537,10 @@
     </row>
     <row r="664" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>482</v>
+        <v>819</v>
       </c>
       <c r="B664" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C664">
         <v>219</v>
@@ -10548,10 +10548,10 @@
     </row>
     <row r="665" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="B665" t="s">
-        <v>241</v>
+        <v>54</v>
       </c>
       <c r="C665">
         <v>138</v>
@@ -10559,10 +10559,10 @@
     </row>
     <row r="666" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="B666" t="s">
-        <v>54</v>
+        <v>304</v>
       </c>
       <c r="C666">
         <v>748</v>
@@ -10570,10 +10570,10 @@
     </row>
     <row r="667" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>821</v>
+        <v>572</v>
       </c>
       <c r="B667" t="s">
-        <v>304</v>
+        <v>10</v>
       </c>
       <c r="C667">
         <v>778</v>
@@ -10581,10 +10581,10 @@
     </row>
     <row r="668" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>572</v>
+        <v>822</v>
       </c>
       <c r="B668" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
       <c r="C668">
         <v>823</v>
@@ -10592,10 +10592,10 @@
     </row>
     <row r="669" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>822</v>
+        <v>520</v>
       </c>
       <c r="B669" t="s">
-        <v>51</v>
+        <v>305</v>
       </c>
       <c r="C669">
         <v>375</v>
@@ -10603,10 +10603,10 @@
     </row>
     <row r="670" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>520</v>
+        <v>823</v>
       </c>
       <c r="B670" t="s">
-        <v>305</v>
+        <v>40</v>
       </c>
       <c r="C670">
         <v>54</v>
@@ -10614,10 +10614,10 @@
     </row>
     <row r="671" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>823</v>
+        <v>689</v>
       </c>
       <c r="B671" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="C671">
         <v>90</v>
@@ -10625,10 +10625,10 @@
     </row>
     <row r="672" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A672" t="s">
-        <v>689</v>
+        <v>512</v>
       </c>
       <c r="B672" t="s">
-        <v>54</v>
+        <v>267</v>
       </c>
       <c r="C672">
         <v>961</v>
@@ -10636,10 +10636,10 @@
     </row>
     <row r="673" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A673" t="s">
-        <v>512</v>
+        <v>824</v>
       </c>
       <c r="B673" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="C673">
         <v>771</v>
@@ -10647,10 +10647,10 @@
     </row>
     <row r="674" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A674" t="s">
-        <v>824</v>
+        <v>724</v>
       </c>
       <c r="B674" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C674">
         <v>713</v>
@@ -10658,10 +10658,10 @@
     </row>
     <row r="675" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A675" t="s">
-        <v>724</v>
+        <v>825</v>
       </c>
       <c r="B675" t="s">
-        <v>215</v>
+        <v>287</v>
       </c>
       <c r="C675">
         <v>377</v>
@@ -10669,10 +10669,10 @@
     </row>
     <row r="676" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A676" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B676" t="s">
-        <v>287</v>
+        <v>306</v>
       </c>
       <c r="C676">
         <v>54</v>
@@ -10680,10 +10680,10 @@
     </row>
     <row r="677" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A677" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B677" t="s">
-        <v>306</v>
+        <v>171</v>
       </c>
       <c r="C677">
         <v>431</v>
@@ -10691,10 +10691,10 @@
     </row>
     <row r="678" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A678" t="s">
-        <v>827</v>
+        <v>459</v>
       </c>
       <c r="B678" t="s">
-        <v>171</v>
+        <v>307</v>
       </c>
       <c r="C678">
         <v>101</v>
@@ -10702,10 +10702,10 @@
     </row>
     <row r="679" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A679" t="s">
-        <v>459</v>
+        <v>828</v>
       </c>
       <c r="B679" t="s">
-        <v>307</v>
+        <v>279</v>
       </c>
       <c r="C679">
         <v>982</v>
@@ -10713,10 +10713,10 @@
     </row>
     <row r="680" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A680" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B680" t="s">
-        <v>279</v>
+        <v>184</v>
       </c>
       <c r="C680">
         <v>830</v>
@@ -10724,10 +10724,10 @@
     </row>
     <row r="681" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A681" t="s">
-        <v>829</v>
+        <v>691</v>
       </c>
       <c r="B681" t="s">
-        <v>184</v>
+        <v>93</v>
       </c>
       <c r="C681">
         <v>521</v>
@@ -10735,10 +10735,10 @@
     </row>
     <row r="682" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A682" t="s">
-        <v>691</v>
+        <v>830</v>
       </c>
       <c r="B682" t="s">
-        <v>93</v>
+        <v>308</v>
       </c>
       <c r="C682">
         <v>154</v>
@@ -10746,10 +10746,10 @@
     </row>
     <row r="683" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A683" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="B683" t="s">
-        <v>308</v>
+        <v>40</v>
       </c>
       <c r="C683">
         <v>803</v>
@@ -10757,10 +10757,10 @@
     </row>
     <row r="684" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A684" t="s">
-        <v>831</v>
+        <v>673</v>
       </c>
       <c r="B684" t="s">
-        <v>40</v>
+        <v>243</v>
       </c>
       <c r="C684">
         <v>31</v>
@@ -10768,10 +10768,10 @@
     </row>
     <row r="685" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A685" t="s">
-        <v>673</v>
+        <v>832</v>
       </c>
       <c r="B685" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="C685">
         <v>307</v>
@@ -10779,10 +10779,10 @@
     </row>
     <row r="686" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A686" t="s">
-        <v>832</v>
+        <v>548</v>
       </c>
       <c r="B686" t="s">
-        <v>252</v>
+        <v>300</v>
       </c>
       <c r="C686">
         <v>175</v>
@@ -10790,10 +10790,10 @@
     </row>
     <row r="687" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A687" t="s">
-        <v>548</v>
+        <v>433</v>
       </c>
       <c r="B687" t="s">
-        <v>300</v>
+        <v>33</v>
       </c>
       <c r="C687">
         <v>456</v>
@@ -10801,10 +10801,10 @@
     </row>
     <row r="688" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A688" t="s">
-        <v>433</v>
+        <v>833</v>
       </c>
       <c r="B688" t="s">
-        <v>33</v>
+        <v>309</v>
       </c>
       <c r="C688">
         <v>564</v>
@@ -10812,10 +10812,10 @@
     </row>
     <row r="689" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A689" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B689" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C689">
         <v>336</v>
@@ -10823,10 +10823,10 @@
     </row>
     <row r="690" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A690" t="s">
-        <v>834</v>
+        <v>653</v>
       </c>
       <c r="B690" t="s">
-        <v>310</v>
+        <v>275</v>
       </c>
       <c r="C690">
         <v>87</v>
@@ -10834,10 +10834,10 @@
     </row>
     <row r="691" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A691" t="s">
-        <v>653</v>
+        <v>349</v>
       </c>
       <c r="B691" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="C691">
         <v>244</v>
@@ -10845,10 +10845,10 @@
     </row>
     <row r="692" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A692" t="s">
-        <v>349</v>
+        <v>835</v>
       </c>
       <c r="B692" t="s">
-        <v>270</v>
+        <v>90</v>
       </c>
       <c r="C692">
         <v>65</v>
@@ -10856,10 +10856,10 @@
     </row>
     <row r="693" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A693" t="s">
-        <v>835</v>
+        <v>380</v>
       </c>
       <c r="B693" t="s">
-        <v>90</v>
+        <v>142</v>
       </c>
       <c r="C693">
         <v>760</v>
@@ -10867,10 +10867,10 @@
     </row>
     <row r="694" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A694" t="s">
-        <v>380</v>
+        <v>836</v>
       </c>
       <c r="B694" t="s">
-        <v>142</v>
+        <v>311</v>
       </c>
       <c r="C694">
         <v>612</v>
@@ -10878,10 +10878,10 @@
     </row>
     <row r="695" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A695" t="s">
-        <v>836</v>
+        <v>772</v>
       </c>
       <c r="B695" t="s">
-        <v>311</v>
+        <v>233</v>
       </c>
       <c r="C695">
         <v>966</v>
@@ -10889,10 +10889,10 @@
     </row>
     <row r="696" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A696" t="s">
-        <v>772</v>
+        <v>837</v>
       </c>
       <c r="B696" t="s">
-        <v>233</v>
+        <v>178</v>
       </c>
       <c r="C696">
         <v>220</v>
@@ -10900,10 +10900,10 @@
     </row>
     <row r="697" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A697" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="B697" t="s">
-        <v>178</v>
+        <v>128</v>
       </c>
       <c r="C697">
         <v>422</v>
@@ -10911,10 +10911,10 @@
     </row>
     <row r="698" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A698" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="B698" t="s">
-        <v>128</v>
+        <v>24</v>
       </c>
       <c r="C698">
         <v>285</v>
@@ -10922,10 +10922,10 @@
     </row>
     <row r="699" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A699" t="s">
-        <v>839</v>
+        <v>817</v>
       </c>
       <c r="B699" t="s">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="C699">
         <v>117</v>
@@ -10933,10 +10933,10 @@
     </row>
     <row r="700" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A700" t="s">
-        <v>817</v>
+        <v>840</v>
       </c>
       <c r="B700" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C700">
         <v>514</v>
@@ -10944,10 +10944,10 @@
     </row>
     <row r="701" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A701" t="s">
-        <v>840</v>
+        <v>785</v>
       </c>
       <c r="B701" t="s">
-        <v>278</v>
+        <v>259</v>
       </c>
       <c r="C701">
         <v>552</v>
@@ -10955,10 +10955,10 @@
     </row>
     <row r="702" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A702" t="s">
-        <v>785</v>
+        <v>841</v>
       </c>
       <c r="B702" t="s">
-        <v>259</v>
+        <v>90</v>
       </c>
       <c r="C702">
         <v>847</v>
@@ -10966,10 +10966,10 @@
     </row>
     <row r="703" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A703" t="s">
-        <v>841</v>
+        <v>715</v>
       </c>
       <c r="B703" t="s">
-        <v>90</v>
+        <v>209</v>
       </c>
       <c r="C703">
         <v>338</v>
@@ -10977,10 +10977,10 @@
     </row>
     <row r="704" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A704" t="s">
-        <v>715</v>
+        <v>801</v>
       </c>
       <c r="B704" t="s">
-        <v>209</v>
+        <v>188</v>
       </c>
       <c r="C704">
         <v>307</v>
@@ -10988,10 +10988,10 @@
     </row>
     <row r="705" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A705" t="s">
-        <v>801</v>
+        <v>720</v>
       </c>
       <c r="B705" t="s">
-        <v>188</v>
+        <v>312</v>
       </c>
       <c r="C705">
         <v>98</v>
@@ -10999,10 +10999,10 @@
     </row>
     <row r="706" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A706" t="s">
-        <v>720</v>
+        <v>842</v>
       </c>
       <c r="B706" t="s">
-        <v>312</v>
+        <v>202</v>
       </c>
       <c r="C706">
         <v>322</v>
@@ -11010,10 +11010,10 @@
     </row>
     <row r="707" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A707" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B707" t="s">
-        <v>202</v>
+        <v>159</v>
       </c>
       <c r="C707">
         <v>267</v>
@@ -11021,10 +11021,10 @@
     </row>
     <row r="708" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A708" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B708" t="s">
-        <v>159</v>
+        <v>105</v>
       </c>
       <c r="C708">
         <v>377</v>
@@ -11032,10 +11032,10 @@
     </row>
     <row r="709" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A709" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B709" t="s">
-        <v>105</v>
+        <v>313</v>
       </c>
       <c r="C709">
         <v>467</v>
@@ -11043,10 +11043,10 @@
     </row>
     <row r="710" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A710" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B710" t="s">
-        <v>313</v>
+        <v>61</v>
       </c>
       <c r="C710">
         <v>90</v>
@@ -11054,10 +11054,10 @@
     </row>
     <row r="711" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A711" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B711" t="s">
-        <v>61</v>
+        <v>168</v>
       </c>
       <c r="C711">
         <v>391</v>
@@ -11065,10 +11065,10 @@
     </row>
     <row r="712" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A712" t="s">
-        <v>847</v>
+        <v>524</v>
       </c>
       <c r="B712" t="s">
-        <v>168</v>
+        <v>174</v>
       </c>
       <c r="C712">
         <v>64</v>
@@ -11076,10 +11076,10 @@
     </row>
     <row r="713" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A713" t="s">
-        <v>524</v>
+        <v>848</v>
       </c>
       <c r="B713" t="s">
-        <v>174</v>
+        <v>314</v>
       </c>
       <c r="C713">
         <v>985</v>
@@ -11087,10 +11087,10 @@
     </row>
     <row r="714" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A714" t="s">
-        <v>848</v>
+        <v>497</v>
       </c>
       <c r="B714" t="s">
-        <v>314</v>
+        <v>272</v>
       </c>
       <c r="C714">
         <v>739</v>
@@ -11098,10 +11098,10 @@
     </row>
     <row r="715" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A715" t="s">
-        <v>497</v>
+        <v>634</v>
       </c>
       <c r="B715" t="s">
-        <v>272</v>
+        <v>150</v>
       </c>
       <c r="C715">
         <v>252</v>
@@ -11109,10 +11109,10 @@
     </row>
     <row r="716" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A716" t="s">
-        <v>634</v>
+        <v>758</v>
       </c>
       <c r="B716" t="s">
-        <v>150</v>
+        <v>192</v>
       </c>
       <c r="C716">
         <v>409</v>
@@ -11120,10 +11120,10 @@
     </row>
     <row r="717" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A717" t="s">
-        <v>758</v>
+        <v>562</v>
       </c>
       <c r="B717" t="s">
-        <v>192</v>
+        <v>236</v>
       </c>
       <c r="C717">
         <v>838</v>
@@ -11131,10 +11131,10 @@
     </row>
     <row r="718" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A718" t="s">
-        <v>562</v>
+        <v>849</v>
       </c>
       <c r="B718" t="s">
-        <v>236</v>
+        <v>99</v>
       </c>
       <c r="C718">
         <v>508</v>
@@ -11142,10 +11142,10 @@
     </row>
     <row r="719" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A719" t="s">
-        <v>849</v>
+        <v>508</v>
       </c>
       <c r="B719" t="s">
-        <v>99</v>
+        <v>210</v>
       </c>
       <c r="C719">
         <v>473</v>
@@ -11153,10 +11153,10 @@
     </row>
     <row r="720" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A720" t="s">
-        <v>508</v>
+        <v>760</v>
       </c>
       <c r="B720" t="s">
-        <v>210</v>
+        <v>256</v>
       </c>
       <c r="C720">
         <v>324</v>
@@ -11164,10 +11164,10 @@
     </row>
     <row r="721" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A721" t="s">
-        <v>760</v>
+        <v>376</v>
       </c>
       <c r="B721" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="C721">
         <v>716</v>
@@ -11175,10 +11175,10 @@
     </row>
     <row r="722" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A722" t="s">
-        <v>376</v>
+        <v>850</v>
       </c>
       <c r="B722" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="C722">
         <v>310</v>
@@ -11186,10 +11186,10 @@
     </row>
     <row r="723" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A723" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="B723" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C723">
         <v>900</v>
@@ -11197,10 +11197,10 @@
     </row>
     <row r="724" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A724" t="s">
-        <v>851</v>
+        <v>384</v>
       </c>
       <c r="B724" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="C724">
         <v>411</v>
@@ -11208,10 +11208,10 @@
     </row>
     <row r="725" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A725" t="s">
-        <v>384</v>
+        <v>799</v>
       </c>
       <c r="B725" t="s">
-        <v>197</v>
+        <v>88</v>
       </c>
       <c r="C725">
         <v>131</v>
@@ -11219,10 +11219,10 @@
     </row>
     <row r="726" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A726" t="s">
-        <v>799</v>
+        <v>804</v>
       </c>
       <c r="B726" t="s">
-        <v>88</v>
+        <v>199</v>
       </c>
       <c r="C726">
         <v>514</v>
@@ -11230,10 +11230,10 @@
     </row>
     <row r="727" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A727" t="s">
-        <v>804</v>
+        <v>370</v>
       </c>
       <c r="B727" t="s">
-        <v>199</v>
+        <v>91</v>
       </c>
       <c r="C727">
         <v>126</v>
@@ -11241,10 +11241,10 @@
     </row>
     <row r="728" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A728" t="s">
-        <v>370</v>
+        <v>451</v>
       </c>
       <c r="B728" t="s">
-        <v>91</v>
+        <v>247</v>
       </c>
       <c r="C728">
         <v>262</v>
@@ -11252,10 +11252,10 @@
     </row>
     <row r="729" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A729" t="s">
-        <v>451</v>
+        <v>852</v>
       </c>
       <c r="B729" t="s">
-        <v>247</v>
+        <v>101</v>
       </c>
       <c r="C729">
         <v>912</v>
@@ -11263,10 +11263,10 @@
     </row>
     <row r="730" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A730" t="s">
-        <v>852</v>
+        <v>746</v>
       </c>
       <c r="B730" t="s">
-        <v>101</v>
+        <v>48</v>
       </c>
       <c r="C730">
         <v>676</v>
@@ -11274,10 +11274,10 @@
     </row>
     <row r="731" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A731" t="s">
-        <v>746</v>
+        <v>803</v>
       </c>
       <c r="B731" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C731">
         <v>890</v>
@@ -11285,10 +11285,10 @@
     </row>
     <row r="732" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A732" t="s">
-        <v>803</v>
+        <v>853</v>
       </c>
       <c r="B732" t="s">
-        <v>49</v>
+        <v>155</v>
       </c>
       <c r="C732">
         <v>739</v>
@@ -11296,10 +11296,10 @@
     </row>
     <row r="733" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A733" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B733" t="s">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="C733">
         <v>703</v>
@@ -11307,10 +11307,10 @@
     </row>
     <row r="734" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A734" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B734" t="s">
-        <v>120</v>
+        <v>284</v>
       </c>
       <c r="C734">
         <v>772</v>
@@ -11318,10 +11318,10 @@
     </row>
     <row r="735" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A735" t="s">
-        <v>855</v>
+        <v>383</v>
       </c>
       <c r="B735" t="s">
-        <v>284</v>
+        <v>244</v>
       </c>
       <c r="C735">
         <v>668</v>
@@ -11329,10 +11329,10 @@
     </row>
     <row r="736" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A736" t="s">
-        <v>383</v>
+        <v>794</v>
       </c>
       <c r="B736" t="s">
-        <v>244</v>
+        <v>165</v>
       </c>
       <c r="C736">
         <v>174</v>
@@ -11340,10 +11340,10 @@
     </row>
     <row r="737" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A737" t="s">
-        <v>794</v>
+        <v>856</v>
       </c>
       <c r="B737" t="s">
-        <v>165</v>
+        <v>274</v>
       </c>
       <c r="C737">
         <v>542</v>
@@ -11351,10 +11351,10 @@
     </row>
     <row r="738" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A738" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B738" t="s">
-        <v>274</v>
+        <v>127</v>
       </c>
       <c r="C738">
         <v>430</v>
@@ -11362,10 +11362,10 @@
     </row>
     <row r="739" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A739" t="s">
-        <v>857</v>
+        <v>483</v>
       </c>
       <c r="B739" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="C739">
         <v>461</v>
@@ -11373,10 +11373,10 @@
     </row>
     <row r="740" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A740" t="s">
-        <v>483</v>
+        <v>723</v>
       </c>
       <c r="B740" t="s">
-        <v>118</v>
+        <v>267</v>
       </c>
       <c r="C740">
         <v>591</v>
@@ -11384,10 +11384,10 @@
     </row>
     <row r="741" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A741" t="s">
-        <v>723</v>
+        <v>858</v>
       </c>
       <c r="B741" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="C741">
         <v>872</v>
@@ -11395,10 +11395,10 @@
     </row>
     <row r="742" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A742" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="B742" t="s">
-        <v>172</v>
+        <v>151</v>
       </c>
       <c r="C742">
         <v>721</v>
@@ -11406,10 +11406,10 @@
     </row>
     <row r="743" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A743" t="s">
-        <v>859</v>
+        <v>533</v>
       </c>
       <c r="B743" t="s">
-        <v>151</v>
+        <v>315</v>
       </c>
       <c r="C743">
         <v>405</v>
@@ -11417,10 +11417,10 @@
     </row>
     <row r="744" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A744" t="s">
-        <v>533</v>
+        <v>860</v>
       </c>
       <c r="B744" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="C744">
         <v>442</v>
@@ -11428,10 +11428,10 @@
     </row>
     <row r="745" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A745" t="s">
-        <v>860</v>
+        <v>404</v>
       </c>
       <c r="B745" t="s">
-        <v>316</v>
+        <v>184</v>
       </c>
       <c r="C745">
         <v>611</v>
@@ -11439,10 +11439,10 @@
     </row>
     <row r="746" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A746" t="s">
-        <v>404</v>
+        <v>861</v>
       </c>
       <c r="B746" t="s">
-        <v>184</v>
+        <v>144</v>
       </c>
       <c r="C746">
         <v>27</v>
@@ -11450,10 +11450,10 @@
     </row>
     <row r="747" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A747" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="B747" t="s">
-        <v>144</v>
+        <v>37</v>
       </c>
       <c r="C747">
         <v>188</v>
@@ -11461,10 +11461,10 @@
     </row>
     <row r="748" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A748" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="B748" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="C748">
         <v>336</v>
@@ -11472,10 +11472,10 @@
     </row>
     <row r="749" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A749" t="s">
-        <v>863</v>
+        <v>683</v>
       </c>
       <c r="B749" t="s">
-        <v>317</v>
+        <v>32</v>
       </c>
       <c r="C749">
         <v>294</v>
@@ -11483,10 +11483,10 @@
     </row>
     <row r="750" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A750" t="s">
-        <v>683</v>
+        <v>726</v>
       </c>
       <c r="B750" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="C750">
         <v>784</v>
@@ -11494,10 +11494,10 @@
     </row>
     <row r="751" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A751" t="s">
-        <v>726</v>
+        <v>864</v>
       </c>
       <c r="B751" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="C751">
         <v>880</v>
@@ -11505,10 +11505,10 @@
     </row>
     <row r="752" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A752" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B752" t="s">
-        <v>13</v>
+        <v>180</v>
       </c>
       <c r="C752">
         <v>793</v>
@@ -11516,10 +11516,10 @@
     </row>
     <row r="753" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A753" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="B753" t="s">
-        <v>180</v>
+        <v>76</v>
       </c>
       <c r="C753">
         <v>810</v>
@@ -11527,10 +11527,10 @@
     </row>
     <row r="754" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A754" t="s">
-        <v>866</v>
+        <v>370</v>
       </c>
       <c r="B754" t="s">
-        <v>76</v>
+        <v>318</v>
       </c>
       <c r="C754">
         <v>947</v>
@@ -11538,10 +11538,10 @@
     </row>
     <row r="755" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A755" t="s">
-        <v>370</v>
+        <v>588</v>
       </c>
       <c r="B755" t="s">
-        <v>318</v>
+        <v>257</v>
       </c>
       <c r="C755">
         <v>382</v>
@@ -11549,10 +11549,10 @@
     </row>
     <row r="756" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A756" t="s">
-        <v>588</v>
+        <v>867</v>
       </c>
       <c r="B756" t="s">
-        <v>257</v>
+        <v>300</v>
       </c>
       <c r="C756">
         <v>751</v>
@@ -11560,10 +11560,10 @@
     </row>
     <row r="757" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A757" t="s">
-        <v>867</v>
+        <v>778</v>
       </c>
       <c r="B757" t="s">
-        <v>300</v>
+        <v>57</v>
       </c>
       <c r="C757">
         <v>276</v>
@@ -11571,10 +11571,10 @@
     </row>
     <row r="758" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A758" t="s">
-        <v>778</v>
+        <v>868</v>
       </c>
       <c r="B758" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="C758">
         <v>291</v>
@@ -11582,10 +11582,10 @@
     </row>
     <row r="759" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A759" t="s">
-        <v>868</v>
+        <v>409</v>
       </c>
       <c r="B759" t="s">
-        <v>16</v>
+        <v>312</v>
       </c>
       <c r="C759">
         <v>794</v>
@@ -11593,10 +11593,10 @@
     </row>
     <row r="760" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A760" t="s">
-        <v>409</v>
+        <v>480</v>
       </c>
       <c r="B760" t="s">
-        <v>312</v>
+        <v>319</v>
       </c>
       <c r="C760">
         <v>185</v>
@@ -11604,10 +11604,10 @@
     </row>
     <row r="761" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A761" t="s">
-        <v>480</v>
+        <v>778</v>
       </c>
       <c r="B761" t="s">
-        <v>319</v>
+        <v>77</v>
       </c>
       <c r="C761">
         <v>641</v>
@@ -11615,10 +11615,10 @@
     </row>
     <row r="762" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A762" t="s">
-        <v>778</v>
+        <v>869</v>
       </c>
       <c r="B762" t="s">
-        <v>77</v>
+        <v>110</v>
       </c>
       <c r="C762">
         <v>722</v>
@@ -11626,10 +11626,10 @@
     </row>
     <row r="763" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A763" t="s">
-        <v>869</v>
+        <v>524</v>
       </c>
       <c r="B763" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="C763">
         <v>914</v>
@@ -11637,10 +11637,10 @@
     </row>
     <row r="764" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A764" t="s">
-        <v>524</v>
+        <v>870</v>
       </c>
       <c r="B764" t="s">
-        <v>119</v>
+        <v>311</v>
       </c>
       <c r="C764">
         <v>62</v>
@@ -11648,10 +11648,10 @@
     </row>
     <row r="765" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A765" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="B765" t="s">
-        <v>311</v>
+        <v>113</v>
       </c>
       <c r="C765">
         <v>3</v>
@@ -11659,10 +11659,10 @@
     </row>
     <row r="766" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A766" t="s">
-        <v>871</v>
+        <v>548</v>
       </c>
       <c r="B766" t="s">
-        <v>113</v>
+        <v>286</v>
       </c>
       <c r="C766">
         <v>514</v>
@@ -11670,10 +11670,10 @@
     </row>
     <row r="767" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A767" t="s">
-        <v>548</v>
+        <v>636</v>
       </c>
       <c r="B767" t="s">
-        <v>286</v>
+        <v>266</v>
       </c>
       <c r="C767">
         <v>436</v>
@@ -11681,10 +11681,10 @@
     </row>
     <row r="768" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A768" t="s">
-        <v>636</v>
+        <v>872</v>
       </c>
       <c r="B768" t="s">
-        <v>266</v>
+        <v>126</v>
       </c>
       <c r="C768">
         <v>134</v>
@@ -11692,10 +11692,10 @@
     </row>
     <row r="769" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A769" t="s">
-        <v>872</v>
+        <v>845</v>
       </c>
       <c r="B769" t="s">
-        <v>126</v>
+        <v>320</v>
       </c>
       <c r="C769">
         <v>679</v>
@@ -11703,10 +11703,10 @@
     </row>
     <row r="770" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A770" t="s">
-        <v>845</v>
+        <v>634</v>
       </c>
       <c r="B770" t="s">
-        <v>320</v>
+        <v>65</v>
       </c>
       <c r="C770">
         <v>899</v>
@@ -11714,10 +11714,10 @@
     </row>
     <row r="771" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A771" t="s">
-        <v>634</v>
+        <v>736</v>
       </c>
       <c r="B771" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C771">
         <v>665</v>
@@ -11725,10 +11725,10 @@
     </row>
     <row r="772" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A772" t="s">
-        <v>736</v>
+        <v>873</v>
       </c>
       <c r="B772" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C772">
         <v>608</v>
@@ -11736,10 +11736,10 @@
     </row>
     <row r="773" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A773" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="B773" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="C773">
         <v>314</v>
@@ -11747,10 +11747,10 @@
     </row>
     <row r="774" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A774" t="s">
-        <v>874</v>
+        <v>551</v>
       </c>
       <c r="B774" t="s">
-        <v>203</v>
+        <v>283</v>
       </c>
       <c r="C774">
         <v>355</v>
@@ -11758,10 +11758,10 @@
     </row>
     <row r="775" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A775" t="s">
-        <v>551</v>
+        <v>449</v>
       </c>
       <c r="B775" t="s">
-        <v>283</v>
+        <v>315</v>
       </c>
       <c r="C775">
         <v>633</v>
@@ -11769,10 +11769,10 @@
     </row>
     <row r="776" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A776" t="s">
-        <v>449</v>
+        <v>870</v>
       </c>
       <c r="B776" t="s">
-        <v>315</v>
+        <v>160</v>
       </c>
       <c r="C776">
         <v>618</v>
@@ -11780,10 +11780,10 @@
     </row>
     <row r="777" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A777" t="s">
-        <v>870</v>
+        <v>506</v>
       </c>
       <c r="B777" t="s">
-        <v>160</v>
+        <v>241</v>
       </c>
       <c r="C777">
         <v>700</v>
@@ -11791,10 +11791,10 @@
     </row>
     <row r="778" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A778" t="s">
-        <v>506</v>
+        <v>848</v>
       </c>
       <c r="B778" t="s">
-        <v>241</v>
+        <v>24</v>
       </c>
       <c r="C778">
         <v>90</v>
@@ -11802,10 +11802,10 @@
     </row>
     <row r="779" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A779" t="s">
-        <v>848</v>
+        <v>875</v>
       </c>
       <c r="B779" t="s">
-        <v>24</v>
+        <v>321</v>
       </c>
       <c r="C779">
         <v>488</v>
@@ -11813,10 +11813,10 @@
     </row>
     <row r="780" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A780" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="B780" t="s">
-        <v>321</v>
+        <v>285</v>
       </c>
       <c r="C780">
         <v>44</v>
@@ -11824,10 +11824,10 @@
     </row>
     <row r="781" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A781" t="s">
-        <v>876</v>
+        <v>466</v>
       </c>
       <c r="B781" t="s">
-        <v>285</v>
+        <v>169</v>
       </c>
       <c r="C781">
         <v>568</v>
@@ -11835,10 +11835,10 @@
     </row>
     <row r="782" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A782" t="s">
-        <v>466</v>
+        <v>877</v>
       </c>
       <c r="B782" t="s">
-        <v>169</v>
+        <v>224</v>
       </c>
       <c r="C782">
         <v>608</v>
@@ -11846,10 +11846,10 @@
     </row>
     <row r="783" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A783" t="s">
-        <v>877</v>
+        <v>624</v>
       </c>
       <c r="B783" t="s">
-        <v>224</v>
+        <v>58</v>
       </c>
       <c r="C783">
         <v>81</v>
@@ -11857,10 +11857,10 @@
     </row>
     <row r="784" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A784" t="s">
-        <v>624</v>
+        <v>354</v>
       </c>
       <c r="B784" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="C784">
         <v>124</v>
@@ -11868,10 +11868,10 @@
     </row>
     <row r="785" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A785" t="s">
-        <v>354</v>
+        <v>461</v>
       </c>
       <c r="B785" t="s">
-        <v>65</v>
+        <v>322</v>
       </c>
       <c r="C785">
         <v>625</v>
@@ -11879,10 +11879,10 @@
     </row>
     <row r="786" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A786" t="s">
-        <v>461</v>
+        <v>878</v>
       </c>
       <c r="B786" t="s">
-        <v>322</v>
+        <v>11</v>
       </c>
       <c r="C786">
         <v>829</v>
@@ -11890,10 +11890,10 @@
     </row>
     <row r="787" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A787" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="B787" t="s">
-        <v>11</v>
+        <v>127</v>
       </c>
       <c r="C787">
         <v>757</v>
@@ -11901,10 +11901,10 @@
     </row>
     <row r="788" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A788" t="s">
-        <v>879</v>
+        <v>678</v>
       </c>
       <c r="B788" t="s">
-        <v>127</v>
+        <v>76</v>
       </c>
       <c r="C788">
         <v>328</v>
@@ -11912,10 +11912,10 @@
     </row>
     <row r="789" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A789" t="s">
-        <v>678</v>
+        <v>880</v>
       </c>
       <c r="B789" t="s">
-        <v>76</v>
+        <v>323</v>
       </c>
       <c r="C789">
         <v>310</v>
@@ -11923,10 +11923,10 @@
     </row>
     <row r="790" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A790" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="B790" t="s">
-        <v>323</v>
+        <v>152</v>
       </c>
       <c r="C790">
         <v>91</v>
@@ -11934,10 +11934,10 @@
     </row>
     <row r="791" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A791" t="s">
-        <v>881</v>
+        <v>529</v>
       </c>
       <c r="B791" t="s">
-        <v>152</v>
+        <v>324</v>
       </c>
       <c r="C791">
         <v>397</v>
@@ -11945,10 +11945,10 @@
     </row>
     <row r="792" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A792" t="s">
-        <v>529</v>
+        <v>713</v>
       </c>
       <c r="B792" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C792">
         <v>293</v>
@@ -11956,10 +11956,10 @@
     </row>
     <row r="793" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A793" t="s">
-        <v>713</v>
+        <v>647</v>
       </c>
       <c r="B793" t="s">
-        <v>325</v>
+        <v>45</v>
       </c>
       <c r="C793">
         <v>435</v>
@@ -11967,10 +11967,10 @@
     </row>
     <row r="794" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A794" t="s">
-        <v>647</v>
+        <v>882</v>
       </c>
       <c r="B794" t="s">
-        <v>45</v>
+        <v>111</v>
       </c>
       <c r="C794">
         <v>932</v>
@@ -11978,10 +11978,10 @@
     </row>
     <row r="795" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A795" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="B795" t="s">
-        <v>111</v>
+        <v>168</v>
       </c>
       <c r="C795">
         <v>64</v>
@@ -11989,10 +11989,10 @@
     </row>
     <row r="796" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A796" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B796" t="s">
-        <v>168</v>
+        <v>232</v>
       </c>
       <c r="C796">
         <v>576</v>
@@ -12000,10 +12000,10 @@
     </row>
     <row r="797" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A797" t="s">
-        <v>884</v>
+        <v>835</v>
       </c>
       <c r="B797" t="s">
-        <v>232</v>
+        <v>17</v>
       </c>
       <c r="C797">
         <v>426</v>
@@ -12011,10 +12011,10 @@
     </row>
     <row r="798" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A798" t="s">
-        <v>835</v>
+        <v>885</v>
       </c>
       <c r="B798" t="s">
-        <v>17</v>
+        <v>93</v>
       </c>
       <c r="C798">
         <v>801</v>
@@ -12022,10 +12022,10 @@
     </row>
     <row r="799" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A799" t="s">
-        <v>885</v>
+        <v>761</v>
       </c>
       <c r="B799" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
       <c r="C799">
         <v>632</v>
@@ -12033,10 +12033,10 @@
     </row>
     <row r="800" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A800" t="s">
-        <v>761</v>
+        <v>886</v>
       </c>
       <c r="B800" t="s">
-        <v>52</v>
+        <v>325</v>
       </c>
       <c r="C800">
         <v>151</v>
@@ -12044,10 +12044,10 @@
     </row>
     <row r="801" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A801" t="s">
-        <v>886</v>
+        <v>876</v>
       </c>
       <c r="B801" t="s">
-        <v>325</v>
+        <v>168</v>
       </c>
       <c r="C801">
         <v>216</v>
@@ -12055,10 +12055,10 @@
     </row>
     <row r="802" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A802" t="s">
-        <v>876</v>
+        <v>591</v>
       </c>
       <c r="B802" t="s">
-        <v>168</v>
+        <v>248</v>
       </c>
       <c r="C802">
         <v>605</v>
@@ -12066,10 +12066,10 @@
     </row>
     <row r="803" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A803" t="s">
-        <v>591</v>
+        <v>346</v>
       </c>
       <c r="B803" t="s">
-        <v>248</v>
+        <v>178</v>
       </c>
       <c r="C803">
         <v>980</v>
@@ -12077,10 +12077,10 @@
     </row>
     <row r="804" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A804" t="s">
-        <v>346</v>
+        <v>887</v>
       </c>
       <c r="B804" t="s">
-        <v>178</v>
+        <v>287</v>
       </c>
       <c r="C804">
         <v>404</v>
@@ -12088,10 +12088,10 @@
     </row>
     <row r="805" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A805" t="s">
-        <v>887</v>
+        <v>843</v>
       </c>
       <c r="B805" t="s">
-        <v>287</v>
+        <v>224</v>
       </c>
       <c r="C805">
         <v>265</v>
@@ -12099,10 +12099,10 @@
     </row>
     <row r="806" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A806" t="s">
-        <v>843</v>
+        <v>522</v>
       </c>
       <c r="B806" t="s">
-        <v>224</v>
+        <v>66</v>
       </c>
       <c r="C806">
         <v>580</v>
@@ -12110,10 +12110,10 @@
     </row>
     <row r="807" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A807" t="s">
-        <v>522</v>
+        <v>888</v>
       </c>
       <c r="B807" t="s">
-        <v>66</v>
+        <v>220</v>
       </c>
       <c r="C807">
         <v>985</v>
@@ -12121,10 +12121,10 @@
     </row>
     <row r="808" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A808" t="s">
-        <v>888</v>
+        <v>367</v>
       </c>
       <c r="B808" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="C808">
         <v>368</v>
@@ -12132,10 +12132,10 @@
     </row>
     <row r="809" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A809" t="s">
-        <v>367</v>
+        <v>716</v>
       </c>
       <c r="B809" t="s">
-        <v>218</v>
+        <v>29</v>
       </c>
       <c r="C809">
         <v>328</v>
@@ -12143,10 +12143,10 @@
     </row>
     <row r="810" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A810" t="s">
-        <v>716</v>
+        <v>612</v>
       </c>
       <c r="B810" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="C810">
         <v>776</v>
@@ -12154,10 +12154,10 @@
     </row>
     <row r="811" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A811" t="s">
-        <v>612</v>
+        <v>889</v>
       </c>
       <c r="B811" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C811">
         <v>574</v>
@@ -12165,10 +12165,10 @@
     </row>
     <row r="812" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A812" t="s">
-        <v>889</v>
+        <v>874</v>
       </c>
       <c r="B812" t="s">
-        <v>25</v>
+        <v>140</v>
       </c>
       <c r="C812">
         <v>298</v>
@@ -12176,10 +12176,10 @@
     </row>
     <row r="813" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A813" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="B813" t="s">
-        <v>140</v>
+        <v>218</v>
       </c>
       <c r="C813">
         <v>214</v>
@@ -12187,10 +12187,10 @@
     </row>
     <row r="814" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A814" t="s">
-        <v>890</v>
+        <v>737</v>
       </c>
       <c r="B814" t="s">
-        <v>218</v>
+        <v>40</v>
       </c>
       <c r="C814">
         <v>277</v>
@@ -12198,10 +12198,10 @@
     </row>
     <row r="815" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A815" t="s">
-        <v>737</v>
+        <v>891</v>
       </c>
       <c r="B815" t="s">
-        <v>40</v>
+        <v>252</v>
       </c>
       <c r="C815">
         <v>859</v>
@@ -12209,10 +12209,10 @@
     </row>
     <row r="816" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A816" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="B816" t="s">
-        <v>252</v>
+        <v>295</v>
       </c>
       <c r="C816">
         <v>267</v>
@@ -12220,10 +12220,10 @@
     </row>
     <row r="817" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A817" t="s">
-        <v>892</v>
+        <v>450</v>
       </c>
       <c r="B817" t="s">
-        <v>295</v>
+        <v>20</v>
       </c>
       <c r="C817">
         <v>453</v>
@@ -12231,10 +12231,10 @@
     </row>
     <row r="818" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A818" t="s">
-        <v>450</v>
+        <v>893</v>
       </c>
       <c r="B818" t="s">
-        <v>20</v>
+        <v>326</v>
       </c>
       <c r="C818">
         <v>728</v>
@@ -12242,10 +12242,10 @@
     </row>
     <row r="819" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A819" t="s">
-        <v>893</v>
+        <v>564</v>
       </c>
       <c r="B819" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C819">
         <v>450</v>
@@ -12253,10 +12253,10 @@
     </row>
     <row r="820" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A820" t="s">
-        <v>564</v>
+        <v>894</v>
       </c>
       <c r="B820" t="s">
-        <v>327</v>
+        <v>200</v>
       </c>
       <c r="C820">
         <v>395</v>
@@ -12264,10 +12264,10 @@
     </row>
     <row r="821" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A821" t="s">
-        <v>894</v>
+        <v>872</v>
       </c>
       <c r="B821" t="s">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="C821">
         <v>643</v>
@@ -12275,10 +12275,10 @@
     </row>
     <row r="822" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A822" t="s">
-        <v>872</v>
+        <v>895</v>
       </c>
       <c r="B822" t="s">
-        <v>214</v>
+        <v>253</v>
       </c>
       <c r="C822">
         <v>486</v>
@@ -12286,10 +12286,10 @@
     </row>
     <row r="823" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A823" t="s">
-        <v>895</v>
+        <v>479</v>
       </c>
       <c r="B823" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="C823">
         <v>691</v>
@@ -12297,10 +12297,10 @@
     </row>
     <row r="824" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A824" t="s">
-        <v>479</v>
+        <v>453</v>
       </c>
       <c r="B824" t="s">
-        <v>221</v>
+        <v>73</v>
       </c>
       <c r="C824">
         <v>361</v>
@@ -12308,10 +12308,10 @@
     </row>
     <row r="825" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A825" t="s">
-        <v>453</v>
+        <v>645</v>
       </c>
       <c r="B825" t="s">
-        <v>73</v>
+        <v>6</v>
       </c>
       <c r="C825">
         <v>327</v>
@@ -12319,10 +12319,10 @@
     </row>
     <row r="826" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A826" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="B826" t="s">
-        <v>6</v>
+        <v>328</v>
       </c>
       <c r="C826">
         <v>148</v>
@@ -12330,10 +12330,10 @@
     </row>
     <row r="827" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A827" t="s">
-        <v>684</v>
+        <v>896</v>
       </c>
       <c r="B827" t="s">
-        <v>328</v>
+        <v>137</v>
       </c>
       <c r="C827">
         <v>744</v>
@@ -12341,10 +12341,10 @@
     </row>
     <row r="828" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A828" t="s">
-        <v>896</v>
+        <v>598</v>
       </c>
       <c r="B828" t="s">
-        <v>137</v>
+        <v>74</v>
       </c>
       <c r="C828">
         <v>976</v>
@@ -12352,10 +12352,10 @@
     </row>
     <row r="829" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A829" t="s">
-        <v>598</v>
+        <v>897</v>
       </c>
       <c r="B829" t="s">
-        <v>74</v>
+        <v>171</v>
       </c>
       <c r="C829">
         <v>386</v>
@@ -12363,10 +12363,10 @@
     </row>
     <row r="830" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A830" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B830" t="s">
-        <v>171</v>
+        <v>329</v>
       </c>
       <c r="C830">
         <v>88</v>
@@ -12374,10 +12374,10 @@
     </row>
     <row r="831" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A831" t="s">
-        <v>898</v>
+        <v>442</v>
       </c>
       <c r="B831" t="s">
-        <v>329</v>
+        <v>50</v>
       </c>
       <c r="C831">
         <v>152</v>
@@ -12385,10 +12385,10 @@
     </row>
     <row r="832" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A832" t="s">
-        <v>442</v>
+        <v>866</v>
       </c>
       <c r="B832" t="s">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C832">
         <v>710</v>
@@ -12396,10 +12396,10 @@
     </row>
     <row r="833" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A833" t="s">
-        <v>866</v>
+        <v>899</v>
       </c>
       <c r="B833" t="s">
-        <v>127</v>
+        <v>228</v>
       </c>
       <c r="C833">
         <v>627</v>
@@ -12407,10 +12407,10 @@
     </row>
     <row r="834" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A834" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B834" t="s">
-        <v>228</v>
+        <v>81</v>
       </c>
       <c r="C834">
         <v>502</v>
@@ -12418,10 +12418,10 @@
     </row>
     <row r="835" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A835" t="s">
-        <v>900</v>
+        <v>718</v>
       </c>
       <c r="B835" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C835">
         <v>887</v>
@@ -12429,10 +12429,10 @@
     </row>
     <row r="836" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A836" t="s">
-        <v>718</v>
+        <v>601</v>
       </c>
       <c r="B836" t="s">
-        <v>57</v>
+        <v>311</v>
       </c>
       <c r="C836">
         <v>610</v>
@@ -12440,10 +12440,10 @@
     </row>
     <row r="837" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A837" t="s">
-        <v>601</v>
+        <v>709</v>
       </c>
       <c r="B837" t="s">
-        <v>311</v>
+        <v>225</v>
       </c>
       <c r="C837">
         <v>370</v>
@@ -12451,10 +12451,10 @@
     </row>
     <row r="838" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A838" t="s">
-        <v>709</v>
+        <v>901</v>
       </c>
       <c r="B838" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="C838">
         <v>565</v>
@@ -12462,10 +12462,10 @@
     </row>
     <row r="839" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A839" t="s">
-        <v>901</v>
+        <v>441</v>
       </c>
       <c r="B839" t="s">
-        <v>45</v>
+        <v>135</v>
       </c>
       <c r="C839">
         <v>189</v>
@@ -12473,10 +12473,10 @@
     </row>
     <row r="840" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A840" t="s">
-        <v>441</v>
+        <v>902</v>
       </c>
       <c r="B840" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="C840">
         <v>97</v>
@@ -12484,10 +12484,10 @@
     </row>
     <row r="841" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A841" t="s">
-        <v>902</v>
+        <v>785</v>
       </c>
       <c r="B841" t="s">
-        <v>77</v>
+        <v>231</v>
       </c>
       <c r="C841">
         <v>402</v>
@@ -12495,10 +12495,10 @@
     </row>
     <row r="842" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A842" t="s">
-        <v>785</v>
+        <v>717</v>
       </c>
       <c r="B842" t="s">
-        <v>231</v>
+        <v>167</v>
       </c>
       <c r="C842">
         <v>918</v>
@@ -12506,10 +12506,10 @@
     </row>
     <row r="843" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A843" t="s">
-        <v>717</v>
+        <v>518</v>
       </c>
       <c r="B843" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="C843">
         <v>642</v>
@@ -12517,10 +12517,10 @@
     </row>
     <row r="844" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A844" t="s">
-        <v>518</v>
+        <v>445</v>
       </c>
       <c r="B844" t="s">
-        <v>255</v>
+        <v>36</v>
       </c>
       <c r="C844">
         <v>821</v>
@@ -12528,10 +12528,10 @@
     </row>
     <row r="845" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A845" t="s">
-        <v>445</v>
+        <v>894</v>
       </c>
       <c r="B845" t="s">
-        <v>36</v>
+        <v>154</v>
       </c>
       <c r="C845">
         <v>882</v>
@@ -12539,10 +12539,10 @@
     </row>
     <row r="846" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A846" t="s">
-        <v>894</v>
+        <v>785</v>
       </c>
       <c r="B846" t="s">
-        <v>154</v>
+        <v>254</v>
       </c>
       <c r="C846">
         <v>512</v>
@@ -12550,10 +12550,10 @@
     </row>
     <row r="847" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A847" t="s">
-        <v>785</v>
+        <v>774</v>
       </c>
       <c r="B847" t="s">
-        <v>254</v>
+        <v>230</v>
       </c>
       <c r="C847">
         <v>900</v>
@@ -12561,10 +12561,10 @@
     </row>
     <row r="848" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A848" t="s">
-        <v>774</v>
+        <v>680</v>
       </c>
       <c r="B848" t="s">
-        <v>230</v>
+        <v>22</v>
       </c>
       <c r="C848">
         <v>567</v>
@@ -12572,10 +12572,10 @@
     </row>
     <row r="849" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A849" t="s">
-        <v>680</v>
+        <v>653</v>
       </c>
       <c r="B849" t="s">
-        <v>22</v>
+        <v>159</v>
       </c>
       <c r="C849">
         <v>796</v>
@@ -12583,10 +12583,10 @@
     </row>
     <row r="850" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A850" t="s">
-        <v>653</v>
+        <v>410</v>
       </c>
       <c r="B850" t="s">
-        <v>159</v>
+        <v>130</v>
       </c>
       <c r="C850">
         <v>890</v>
@@ -12594,10 +12594,10 @@
     </row>
     <row r="851" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A851" t="s">
-        <v>410</v>
+        <v>903</v>
       </c>
       <c r="B851" t="s">
-        <v>130</v>
+        <v>261</v>
       </c>
       <c r="C851">
         <v>248</v>
@@ -12605,10 +12605,10 @@
     </row>
     <row r="852" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A852" t="s">
-        <v>903</v>
+        <v>484</v>
       </c>
       <c r="B852" t="s">
-        <v>261</v>
+        <v>62</v>
       </c>
       <c r="C852">
         <v>162</v>
@@ -12616,10 +12616,10 @@
     </row>
     <row r="853" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A853" t="s">
-        <v>484</v>
+        <v>431</v>
       </c>
       <c r="B853" t="s">
-        <v>62</v>
+        <v>250</v>
       </c>
       <c r="C853">
         <v>352</v>
@@ -12627,10 +12627,10 @@
     </row>
     <row r="854" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A854" t="s">
-        <v>431</v>
+        <v>769</v>
       </c>
       <c r="B854" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="C854">
         <v>387</v>
@@ -12638,10 +12638,10 @@
     </row>
     <row r="855" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A855" t="s">
-        <v>769</v>
+        <v>576</v>
       </c>
       <c r="B855" t="s">
-        <v>310</v>
+        <v>144</v>
       </c>
       <c r="C855">
         <v>497</v>
@@ -12649,10 +12649,10 @@
     </row>
     <row r="856" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A856" t="s">
-        <v>576</v>
+        <v>904</v>
       </c>
       <c r="B856" t="s">
-        <v>144</v>
+        <v>53</v>
       </c>
       <c r="C856">
         <v>491</v>
@@ -12660,10 +12660,10 @@
     </row>
     <row r="857" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A857" t="s">
-        <v>904</v>
+        <v>814</v>
       </c>
       <c r="B857" t="s">
-        <v>53</v>
+        <v>133</v>
       </c>
       <c r="C857">
         <v>215</v>
@@ -12671,10 +12671,10 @@
     </row>
     <row r="858" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A858" t="s">
-        <v>814</v>
+        <v>905</v>
       </c>
       <c r="B858" t="s">
-        <v>133</v>
+        <v>273</v>
       </c>
       <c r="C858">
         <v>338</v>
@@ -12682,10 +12682,10 @@
     </row>
     <row r="859" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A859" t="s">
-        <v>905</v>
+        <v>858</v>
       </c>
       <c r="B859" t="s">
-        <v>273</v>
+        <v>220</v>
       </c>
       <c r="C859">
         <v>974</v>
@@ -12693,10 +12693,10 @@
     </row>
     <row r="860" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A860" t="s">
-        <v>858</v>
+        <v>906</v>
       </c>
       <c r="B860" t="s">
-        <v>220</v>
+        <v>159</v>
       </c>
       <c r="C860">
         <v>826</v>
@@ -12704,10 +12704,10 @@
     </row>
     <row r="861" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A861" t="s">
-        <v>906</v>
+        <v>875</v>
       </c>
       <c r="B861" t="s">
-        <v>159</v>
+        <v>68</v>
       </c>
       <c r="C861">
         <v>802</v>
@@ -12715,10 +12715,10 @@
     </row>
     <row r="862" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A862" t="s">
-        <v>875</v>
+        <v>907</v>
       </c>
       <c r="B862" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="C862">
         <v>997</v>
@@ -12726,10 +12726,10 @@
     </row>
     <row r="863" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A863" t="s">
-        <v>907</v>
+        <v>679</v>
       </c>
       <c r="B863" t="s">
-        <v>56</v>
+        <v>142</v>
       </c>
       <c r="C863">
         <v>967</v>
@@ -12737,10 +12737,10 @@
     </row>
     <row r="864" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A864" t="s">
-        <v>679</v>
+        <v>854</v>
       </c>
       <c r="B864" t="s">
-        <v>142</v>
+        <v>176</v>
       </c>
       <c r="C864">
         <v>429</v>
@@ -12748,10 +12748,10 @@
     </row>
     <row r="865" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A865" t="s">
-        <v>854</v>
+        <v>726</v>
       </c>
       <c r="B865" t="s">
-        <v>176</v>
+        <v>162</v>
       </c>
       <c r="C865">
         <v>464</v>
@@ -12759,10 +12759,10 @@
     </row>
     <row r="866" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A866" t="s">
-        <v>773</v>
+        <v>908</v>
       </c>
       <c r="B866" t="s">
-        <v>282</v>
+        <v>107</v>
       </c>
       <c r="C866">
         <v>391</v>
@@ -12770,10 +12770,10 @@
     </row>
     <row r="867" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A867" t="s">
-        <v>726</v>
+        <v>641</v>
       </c>
       <c r="B867" t="s">
-        <v>162</v>
+        <v>24</v>
       </c>
       <c r="C867">
         <v>552</v>
@@ -12781,10 +12781,10 @@
     </row>
     <row r="868" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A868" t="s">
-        <v>908</v>
+        <v>684</v>
       </c>
       <c r="B868" t="s">
-        <v>107</v>
+        <v>173</v>
       </c>
       <c r="C868">
         <v>962</v>
@@ -12792,10 +12792,10 @@
     </row>
     <row r="869" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A869" t="s">
-        <v>641</v>
+        <v>485</v>
       </c>
       <c r="B869" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="C869">
         <v>248</v>
@@ -12803,10 +12803,10 @@
     </row>
     <row r="870" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A870" t="s">
-        <v>684</v>
+        <v>723</v>
       </c>
       <c r="B870" t="s">
-        <v>173</v>
+        <v>330</v>
       </c>
       <c r="C870">
         <v>365</v>
@@ -12814,10 +12814,10 @@
     </row>
     <row r="871" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A871" t="s">
-        <v>485</v>
+        <v>616</v>
       </c>
       <c r="B871" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C871">
         <v>267</v>
@@ -12825,10 +12825,10 @@
     </row>
     <row r="872" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A872" t="s">
-        <v>723</v>
+        <v>420</v>
       </c>
       <c r="B872" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="C872">
         <v>130</v>
@@ -12836,10 +12836,10 @@
     </row>
     <row r="873" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A873" t="s">
-        <v>616</v>
+        <v>909</v>
       </c>
       <c r="B873" t="s">
-        <v>103</v>
+        <v>207</v>
       </c>
       <c r="C873">
         <v>884</v>
@@ -12847,10 +12847,10 @@
     </row>
     <row r="874" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A874" t="s">
-        <v>420</v>
+        <v>508</v>
       </c>
       <c r="B874" t="s">
-        <v>322</v>
+        <v>304</v>
       </c>
       <c r="C874">
         <v>205</v>
@@ -12858,10 +12858,10 @@
     </row>
     <row r="875" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A875" t="s">
-        <v>909</v>
+        <v>492</v>
       </c>
       <c r="B875" t="s">
-        <v>207</v>
+        <v>21</v>
       </c>
       <c r="C875">
         <v>407</v>
@@ -12869,10 +12869,10 @@
     </row>
     <row r="876" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A876" t="s">
-        <v>508</v>
+        <v>904</v>
       </c>
       <c r="B876" t="s">
-        <v>304</v>
+        <v>189</v>
       </c>
       <c r="C876">
         <v>619</v>
@@ -12880,10 +12880,10 @@
     </row>
     <row r="877" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A877" t="s">
-        <v>492</v>
+        <v>426</v>
       </c>
       <c r="B877" t="s">
-        <v>21</v>
+        <v>331</v>
       </c>
       <c r="C877">
         <v>279</v>
@@ -12891,10 +12891,10 @@
     </row>
     <row r="878" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A878" t="s">
-        <v>904</v>
+        <v>910</v>
       </c>
       <c r="B878" t="s">
-        <v>189</v>
+        <v>230</v>
       </c>
       <c r="C878">
         <v>28</v>
@@ -12902,10 +12902,10 @@
     </row>
     <row r="879" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A879" t="s">
-        <v>426</v>
+        <v>911</v>
       </c>
       <c r="B879" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C879">
         <v>524</v>
@@ -12913,10 +12913,10 @@
     </row>
     <row r="880" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A880" t="s">
-        <v>910</v>
+        <v>912</v>
       </c>
       <c r="B880" t="s">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="C880">
         <v>193</v>
@@ -12924,10 +12924,10 @@
     </row>
     <row r="881" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A881" t="s">
-        <v>911</v>
+        <v>913</v>
       </c>
       <c r="B881" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C881">
         <v>164</v>
@@ -12935,10 +12935,10 @@
     </row>
     <row r="882" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A882" t="s">
-        <v>912</v>
+        <v>553</v>
       </c>
       <c r="B882" t="s">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="C882">
         <v>57</v>
@@ -12946,10 +12946,10 @@
     </row>
     <row r="883" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A883" t="s">
-        <v>913</v>
+        <v>613</v>
       </c>
       <c r="B883" t="s">
-        <v>333</v>
+        <v>117</v>
       </c>
       <c r="C883">
         <v>977</v>
@@ -12957,10 +12957,10 @@
     </row>
     <row r="884" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A884" t="s">
-        <v>553</v>
+        <v>914</v>
       </c>
       <c r="B884" t="s">
-        <v>96</v>
+        <v>283</v>
       </c>
       <c r="C884">
         <v>319</v>
@@ -12968,10 +12968,10 @@
     </row>
     <row r="885" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A885" t="s">
-        <v>613</v>
+        <v>501</v>
       </c>
       <c r="B885" t="s">
-        <v>117</v>
+        <v>195</v>
       </c>
       <c r="C885">
         <v>499</v>
@@ -12979,10 +12979,10 @@
     </row>
     <row r="886" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A886" t="s">
-        <v>914</v>
+        <v>814</v>
       </c>
       <c r="B886" t="s">
-        <v>283</v>
+        <v>200</v>
       </c>
       <c r="C886">
         <v>245</v>
@@ -12990,10 +12990,10 @@
     </row>
     <row r="887" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A887" t="s">
-        <v>479</v>
+        <v>542</v>
       </c>
       <c r="B887" t="s">
-        <v>119</v>
+        <v>139</v>
       </c>
       <c r="C887">
         <v>506</v>
@@ -13001,10 +13001,10 @@
     </row>
     <row r="888" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A888" t="s">
-        <v>501</v>
+        <v>915</v>
       </c>
       <c r="B888" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C888">
         <v>71</v>
@@ -13012,10 +13012,10 @@
     </row>
     <row r="889" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A889" t="s">
-        <v>814</v>
+        <v>783</v>
       </c>
       <c r="B889" t="s">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="C889">
         <v>486</v>
@@ -13023,10 +13023,10 @@
     </row>
     <row r="890" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A890" t="s">
-        <v>542</v>
+        <v>895</v>
       </c>
       <c r="B890" t="s">
-        <v>139</v>
+        <v>291</v>
       </c>
       <c r="C890">
         <v>282</v>
@@ -13034,10 +13034,10 @@
     </row>
     <row r="891" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A891" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="B891" t="s">
-        <v>199</v>
+        <v>303</v>
       </c>
       <c r="C891">
         <v>84</v>
@@ -13045,10 +13045,10 @@
     </row>
     <row r="892" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A892" t="s">
-        <v>783</v>
+        <v>864</v>
       </c>
       <c r="B892" t="s">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="C892">
         <v>56</v>
@@ -13056,10 +13056,10 @@
     </row>
     <row r="893" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A893" t="s">
-        <v>895</v>
+        <v>679</v>
       </c>
       <c r="B893" t="s">
-        <v>291</v>
+        <v>272</v>
       </c>
       <c r="C893">
         <v>691</v>
@@ -13067,10 +13067,10 @@
     </row>
     <row r="894" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A894" t="s">
-        <v>916</v>
+        <v>362</v>
       </c>
       <c r="B894" t="s">
-        <v>303</v>
+        <v>74</v>
       </c>
       <c r="C894">
         <v>756</v>
@@ -13078,10 +13078,10 @@
     </row>
     <row r="895" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A895" t="s">
-        <v>864</v>
+        <v>395</v>
       </c>
       <c r="B895" t="s">
-        <v>318</v>
+        <v>334</v>
       </c>
       <c r="C895">
         <v>33</v>
@@ -13089,10 +13089,10 @@
     </row>
     <row r="896" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A896" t="s">
-        <v>679</v>
+        <v>763</v>
       </c>
       <c r="B896" t="s">
-        <v>272</v>
+        <v>194</v>
       </c>
       <c r="C896">
         <v>749</v>
@@ -13100,10 +13100,10 @@
     </row>
     <row r="897" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A897" t="s">
-        <v>362</v>
+        <v>649</v>
       </c>
       <c r="B897" t="s">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="C897">
         <v>930</v>
@@ -13111,10 +13111,10 @@
     </row>
     <row r="898" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A898" t="s">
-        <v>395</v>
+        <v>487</v>
       </c>
       <c r="B898" t="s">
-        <v>334</v>
+        <v>53</v>
       </c>
       <c r="C898">
         <v>418</v>
@@ -13122,10 +13122,10 @@
     </row>
     <row r="899" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A899" t="s">
-        <v>763</v>
+        <v>545</v>
       </c>
       <c r="B899" t="s">
-        <v>194</v>
+        <v>165</v>
       </c>
       <c r="C899">
         <v>186</v>
@@ -13133,10 +13133,10 @@
     </row>
     <row r="900" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A900" t="s">
-        <v>649</v>
+        <v>695</v>
       </c>
       <c r="B900" t="s">
-        <v>224</v>
+        <v>121</v>
       </c>
       <c r="C900">
         <v>635</v>
@@ -13144,10 +13144,10 @@
     </row>
     <row r="901" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A901" t="s">
-        <v>487</v>
+        <v>398</v>
       </c>
       <c r="B901" t="s">
-        <v>53</v>
+        <v>73</v>
       </c>
       <c r="C901">
         <v>247</v>
@@ -13155,10 +13155,10 @@
     </row>
     <row r="902" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A902" t="s">
-        <v>545</v>
+        <v>437</v>
       </c>
       <c r="B902" t="s">
-        <v>165</v>
+        <v>290</v>
       </c>
       <c r="C902">
         <v>325</v>
@@ -13166,10 +13166,10 @@
     </row>
     <row r="903" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A903" t="s">
-        <v>695</v>
+        <v>568</v>
       </c>
       <c r="B903" t="s">
-        <v>121</v>
+        <v>160</v>
       </c>
       <c r="C903">
         <v>383</v>
@@ -13177,10 +13177,10 @@
     </row>
     <row r="904" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A904" t="s">
-        <v>398</v>
+        <v>818</v>
       </c>
       <c r="B904" t="s">
-        <v>73</v>
+        <v>202</v>
       </c>
       <c r="C904">
         <v>892</v>
@@ -13188,10 +13188,10 @@
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A905" t="s">
-        <v>437</v>
+        <v>917</v>
       </c>
       <c r="B905" t="s">
-        <v>290</v>
+        <v>89</v>
       </c>
       <c r="C905">
         <v>57</v>
@@ -13199,10 +13199,10 @@
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A906" t="s">
-        <v>568</v>
+        <v>475</v>
       </c>
       <c r="B906" t="s">
-        <v>160</v>
+        <v>302</v>
       </c>
       <c r="C906">
         <v>756</v>
@@ -13210,10 +13210,10 @@
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A907" t="s">
-        <v>818</v>
+        <v>528</v>
       </c>
       <c r="B907" t="s">
-        <v>202</v>
+        <v>72</v>
       </c>
       <c r="C907">
         <v>313</v>
@@ -13221,10 +13221,10 @@
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A908" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B908" t="s">
-        <v>89</v>
+        <v>24</v>
       </c>
       <c r="C908">
         <v>682</v>
@@ -13232,10 +13232,10 @@
     </row>
     <row r="909" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A909" t="s">
-        <v>475</v>
+        <v>893</v>
       </c>
       <c r="B909" t="s">
-        <v>302</v>
+        <v>95</v>
       </c>
       <c r="C909">
         <v>119</v>
@@ -13243,10 +13243,10 @@
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A910" t="s">
-        <v>528</v>
+        <v>673</v>
       </c>
       <c r="B910" t="s">
-        <v>72</v>
+        <v>39</v>
       </c>
       <c r="C910">
         <v>553</v>
@@ -13254,10 +13254,10 @@
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A911" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="B911" t="s">
-        <v>24</v>
+        <v>103</v>
       </c>
       <c r="C911">
         <v>783</v>
@@ -13265,10 +13265,10 @@
     </row>
     <row r="912" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A912" t="s">
-        <v>893</v>
+        <v>410</v>
       </c>
       <c r="B912" t="s">
-        <v>95</v>
+        <v>335</v>
       </c>
       <c r="C912">
         <v>800</v>
@@ -13276,10 +13276,10 @@
     </row>
     <row r="913" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A913" t="s">
-        <v>673</v>
+        <v>920</v>
       </c>
       <c r="B913" t="s">
-        <v>39</v>
+        <v>336</v>
       </c>
       <c r="C913">
         <v>650</v>
@@ -13287,10 +13287,10 @@
     </row>
     <row r="914" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A914" t="s">
-        <v>919</v>
+        <v>350</v>
       </c>
       <c r="B914" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="C914">
         <v>158</v>
@@ -13298,10 +13298,10 @@
     </row>
     <row r="915" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A915" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
       <c r="B915" t="s">
-        <v>335</v>
+        <v>184</v>
       </c>
       <c r="C915">
         <v>855</v>
@@ -13309,10 +13309,10 @@
     </row>
     <row r="916" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A916" t="s">
-        <v>920</v>
+        <v>765</v>
       </c>
       <c r="B916" t="s">
-        <v>336</v>
+        <v>43</v>
       </c>
       <c r="C916">
         <v>217</v>
@@ -13320,10 +13320,10 @@
     </row>
     <row r="917" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A917" t="s">
-        <v>350</v>
+        <v>921</v>
       </c>
       <c r="B917" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C917">
         <v>172</v>
@@ -13331,10 +13331,10 @@
     </row>
     <row r="918" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A918" t="s">
-        <v>376</v>
+        <v>646</v>
       </c>
       <c r="B918" t="s">
-        <v>184</v>
+        <v>94</v>
       </c>
       <c r="C918">
         <v>179</v>
@@ -13342,10 +13342,10 @@
     </row>
     <row r="919" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A919" t="s">
-        <v>765</v>
+        <v>807</v>
       </c>
       <c r="B919" t="s">
-        <v>43</v>
+        <v>220</v>
       </c>
       <c r="C919">
         <v>180</v>
@@ -13353,10 +13353,10 @@
     </row>
     <row r="920" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A920" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="B920" t="s">
-        <v>83</v>
+        <v>11</v>
       </c>
       <c r="C920">
         <v>174</v>
@@ -13364,10 +13364,10 @@
     </row>
     <row r="921" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A921" t="s">
-        <v>646</v>
+        <v>923</v>
       </c>
       <c r="B921" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="C921">
         <v>391</v>
@@ -13375,10 +13375,10 @@
     </row>
     <row r="922" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A922" t="s">
-        <v>807</v>
+        <v>924</v>
       </c>
       <c r="B922" t="s">
-        <v>220</v>
+        <v>52</v>
       </c>
       <c r="C922">
         <v>389</v>
@@ -13386,10 +13386,10 @@
     </row>
     <row r="923" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A923" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B923" t="s">
-        <v>11</v>
+        <v>291</v>
       </c>
       <c r="C923">
         <v>863</v>
@@ -13397,10 +13397,10 @@
     </row>
     <row r="924" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A924" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="B924" t="s">
-        <v>219</v>
+        <v>337</v>
       </c>
       <c r="C924">
         <v>686</v>
@@ -13408,10 +13408,10 @@
     </row>
     <row r="925" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A925" t="s">
-        <v>924</v>
+        <v>487</v>
       </c>
       <c r="B925" t="s">
-        <v>52</v>
+        <v>168</v>
       </c>
       <c r="C925">
         <v>325</v>
@@ -13419,10 +13419,10 @@
     </row>
     <row r="926" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A926" t="s">
-        <v>925</v>
+        <v>927</v>
       </c>
       <c r="B926" t="s">
-        <v>291</v>
+        <v>146</v>
       </c>
       <c r="C926">
         <v>595</v>
@@ -13430,10 +13430,10 @@
     </row>
     <row r="927" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A927" t="s">
-        <v>926</v>
+        <v>928</v>
       </c>
       <c r="B927" t="s">
-        <v>337</v>
+        <v>209</v>
       </c>
       <c r="C927">
         <v>68</v>
@@ -13441,10 +13441,10 @@
     </row>
     <row r="928" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A928" t="s">
-        <v>487</v>
+        <v>799</v>
       </c>
       <c r="B928" t="s">
-        <v>168</v>
+        <v>56</v>
       </c>
       <c r="C928">
         <v>657</v>
@@ -13452,10 +13452,10 @@
     </row>
     <row r="929" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A929" t="s">
-        <v>927</v>
+        <v>515</v>
       </c>
       <c r="B929" t="s">
-        <v>146</v>
+        <v>261</v>
       </c>
       <c r="C929">
         <v>334</v>
@@ -13463,10 +13463,10 @@
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A930" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B930" t="s">
-        <v>209</v>
+        <v>304</v>
       </c>
       <c r="C930">
         <v>173</v>
@@ -13474,10 +13474,10 @@
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A931" t="s">
-        <v>799</v>
+        <v>379</v>
       </c>
       <c r="B931" t="s">
-        <v>56</v>
+        <v>303</v>
       </c>
       <c r="C931">
         <v>964</v>
@@ -13485,10 +13485,10 @@
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A932" t="s">
-        <v>515</v>
+        <v>930</v>
       </c>
       <c r="B932" t="s">
-        <v>261</v>
+        <v>104</v>
       </c>
       <c r="C932">
         <v>811</v>
@@ -13496,10 +13496,10 @@
     </row>
     <row r="933" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A933" t="s">
-        <v>929</v>
+        <v>931</v>
       </c>
       <c r="B933" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C933">
         <v>936</v>
@@ -13507,10 +13507,10 @@
     </row>
     <row r="934" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A934" t="s">
-        <v>379</v>
+        <v>932</v>
       </c>
       <c r="B934" t="s">
-        <v>303</v>
+        <v>39</v>
       </c>
       <c r="C934">
         <v>991</v>
@@ -13518,10 +13518,10 @@
     </row>
     <row r="935" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A935" t="s">
-        <v>930</v>
+        <v>368</v>
       </c>
       <c r="B935" t="s">
-        <v>104</v>
+        <v>39</v>
       </c>
       <c r="C935">
         <v>638</v>
@@ -13529,10 +13529,10 @@
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A936" t="s">
-        <v>931</v>
+        <v>933</v>
       </c>
       <c r="B936" t="s">
-        <v>308</v>
+        <v>75</v>
       </c>
       <c r="C936">
         <v>773</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A937" t="s">
-        <v>932</v>
+        <v>890</v>
       </c>
       <c r="B937" t="s">
-        <v>39</v>
+        <v>151</v>
       </c>
       <c r="C937">
         <v>788</v>
@@ -13551,10 +13551,10 @@
     </row>
     <row r="938" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A938" t="s">
-        <v>368</v>
+        <v>451</v>
       </c>
       <c r="B938" t="s">
-        <v>39</v>
+        <v>331</v>
       </c>
       <c r="C938">
         <v>488</v>
@@ -13562,10 +13562,10 @@
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A939" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="B939" t="s">
-        <v>75</v>
+        <v>301</v>
       </c>
       <c r="C939">
         <v>6</v>
@@ -13573,10 +13573,10 @@
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A940" t="s">
-        <v>890</v>
+        <v>485</v>
       </c>
       <c r="B940" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="C940">
         <v>14</v>
@@ -13584,10 +13584,10 @@
     </row>
     <row r="941" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A941" t="s">
-        <v>451</v>
+        <v>876</v>
       </c>
       <c r="B941" t="s">
-        <v>331</v>
+        <v>8</v>
       </c>
       <c r="C941">
         <v>874</v>
@@ -13595,10 +13595,10 @@
     </row>
     <row r="942" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A942" t="s">
-        <v>934</v>
+        <v>697</v>
       </c>
       <c r="B942" t="s">
-        <v>301</v>
+        <v>221</v>
       </c>
       <c r="C942">
         <v>368</v>
@@ -13606,10 +13606,10 @@
     </row>
     <row r="943" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A943" t="s">
-        <v>485</v>
+        <v>418</v>
       </c>
       <c r="B943" t="s">
-        <v>127</v>
+        <v>306</v>
       </c>
       <c r="C943">
         <v>291</v>
@@ -13617,10 +13617,10 @@
     </row>
     <row r="944" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A944" t="s">
-        <v>876</v>
+        <v>553</v>
       </c>
       <c r="B944" t="s">
-        <v>8</v>
+        <v>187</v>
       </c>
       <c r="C944">
         <v>494</v>
@@ -13628,10 +13628,10 @@
     </row>
     <row r="945" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A945" t="s">
-        <v>697</v>
+        <v>770</v>
       </c>
       <c r="B945" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C945">
         <v>801</v>
@@ -13639,10 +13639,10 @@
     </row>
     <row r="946" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A946" t="s">
-        <v>418</v>
+        <v>935</v>
       </c>
       <c r="B946" t="s">
-        <v>306</v>
+        <v>323</v>
       </c>
       <c r="C946">
         <v>955</v>
@@ -13650,10 +13650,10 @@
     </row>
     <row r="947" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A947" t="s">
-        <v>553</v>
+        <v>354</v>
       </c>
       <c r="B947" t="s">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="C947">
         <v>732</v>
@@ -13661,10 +13661,10 @@
     </row>
     <row r="948" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A948" t="s">
-        <v>770</v>
+        <v>615</v>
       </c>
       <c r="B948" t="s">
-        <v>218</v>
+        <v>237</v>
       </c>
       <c r="C948">
         <v>321</v>
@@ -13672,10 +13672,10 @@
     </row>
     <row r="949" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A949" t="s">
-        <v>935</v>
+        <v>878</v>
       </c>
       <c r="B949" t="s">
-        <v>323</v>
+        <v>121</v>
       </c>
       <c r="C949">
         <v>354</v>
@@ -13683,10 +13683,10 @@
     </row>
     <row r="950" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A950" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="B950" t="s">
-        <v>162</v>
+        <v>287</v>
       </c>
       <c r="C950">
         <v>576</v>
@@ -13694,10 +13694,10 @@
     </row>
     <row r="951" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A951" t="s">
-        <v>615</v>
+        <v>435</v>
       </c>
       <c r="B951" t="s">
-        <v>237</v>
+        <v>278</v>
       </c>
       <c r="C951">
         <v>589</v>
@@ -13705,10 +13705,10 @@
     </row>
     <row r="952" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A952" t="s">
-        <v>878</v>
+        <v>668</v>
       </c>
       <c r="B952" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C952">
         <v>779</v>
@@ -13716,10 +13716,10 @@
     </row>
     <row r="953" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A953" t="s">
-        <v>391</v>
+        <v>804</v>
       </c>
       <c r="B953" t="s">
-        <v>287</v>
+        <v>318</v>
       </c>
       <c r="C953">
         <v>819</v>
@@ -13727,10 +13727,10 @@
     </row>
     <row r="954" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A954" t="s">
-        <v>435</v>
+        <v>936</v>
       </c>
       <c r="B954" t="s">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="C954">
         <v>152</v>
@@ -13738,10 +13738,10 @@
     </row>
     <row r="955" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A955" t="s">
-        <v>668</v>
+        <v>937</v>
       </c>
       <c r="B955" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C955">
         <v>696</v>
@@ -13749,10 +13749,10 @@
     </row>
     <row r="956" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A956" t="s">
-        <v>804</v>
+        <v>895</v>
       </c>
       <c r="B956" t="s">
-        <v>318</v>
+        <v>201</v>
       </c>
       <c r="C956">
         <v>174</v>
@@ -13760,10 +13760,10 @@
     </row>
     <row r="957" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A957" t="s">
-        <v>936</v>
+        <v>938</v>
       </c>
       <c r="B957" t="s">
-        <v>175</v>
+        <v>49</v>
       </c>
       <c r="C957">
         <v>834</v>
@@ -13771,10 +13771,10 @@
     </row>
     <row r="958" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A958" t="s">
-        <v>937</v>
+        <v>726</v>
       </c>
       <c r="B958" t="s">
-        <v>122</v>
+        <v>35</v>
       </c>
       <c r="C958">
         <v>115</v>
@@ -13782,10 +13782,10 @@
     </row>
     <row r="959" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A959" t="s">
-        <v>895</v>
+        <v>352</v>
       </c>
       <c r="B959" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="C959">
         <v>699</v>
@@ -13793,10 +13793,10 @@
     </row>
     <row r="960" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A960" t="s">
-        <v>938</v>
+        <v>909</v>
       </c>
       <c r="B960" t="s">
-        <v>49</v>
+        <v>258</v>
       </c>
       <c r="C960">
         <v>472</v>
@@ -13804,10 +13804,10 @@
     </row>
     <row r="961" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A961" t="s">
-        <v>726</v>
+        <v>818</v>
       </c>
       <c r="B961" t="s">
-        <v>35</v>
+        <v>180</v>
       </c>
       <c r="C961">
         <v>358</v>
@@ -13815,10 +13815,10 @@
     </row>
     <row r="962" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A962" t="s">
-        <v>352</v>
+        <v>939</v>
       </c>
       <c r="B962" t="s">
-        <v>206</v>
+        <v>117</v>
       </c>
       <c r="C962">
         <v>470</v>
@@ -13826,10 +13826,10 @@
     </row>
     <row r="963" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A963" t="s">
-        <v>909</v>
+        <v>502</v>
       </c>
       <c r="B963" t="s">
-        <v>258</v>
+        <v>321</v>
       </c>
       <c r="C963">
         <v>451</v>
@@ -13837,10 +13837,10 @@
     </row>
     <row r="964" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A964" t="s">
-        <v>818</v>
+        <v>588</v>
       </c>
       <c r="B964" t="s">
-        <v>180</v>
+        <v>109</v>
       </c>
       <c r="C964">
         <v>278</v>
@@ -13848,10 +13848,10 @@
     </row>
     <row r="965" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A965" t="s">
-        <v>939</v>
+        <v>455</v>
       </c>
       <c r="B965" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C965">
         <v>274</v>
@@ -13859,10 +13859,10 @@
     </row>
     <row r="966" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A966" t="s">
-        <v>502</v>
+        <v>647</v>
       </c>
       <c r="B966" t="s">
-        <v>321</v>
+        <v>338</v>
       </c>
       <c r="C966">
         <v>930</v>
@@ -13870,10 +13870,10 @@
     </row>
     <row r="967" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A967" t="s">
-        <v>588</v>
+        <v>776</v>
       </c>
       <c r="B967" t="s">
-        <v>109</v>
+        <v>41</v>
       </c>
       <c r="C967">
         <v>286</v>
@@ -13881,10 +13881,10 @@
     </row>
     <row r="968" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A968" t="s">
-        <v>455</v>
+        <v>769</v>
       </c>
       <c r="B968" t="s">
-        <v>127</v>
+        <v>44</v>
       </c>
       <c r="C968">
         <v>666</v>
@@ -13892,10 +13892,10 @@
     </row>
     <row r="969" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A969" t="s">
-        <v>647</v>
+        <v>940</v>
       </c>
       <c r="B969" t="s">
-        <v>338</v>
+        <v>158</v>
       </c>
       <c r="C969">
         <v>286</v>
@@ -13903,10 +13903,10 @@
     </row>
     <row r="970" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A970" t="s">
-        <v>776</v>
+        <v>941</v>
       </c>
       <c r="B970" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="C970">
         <v>603</v>
@@ -13914,10 +13914,10 @@
     </row>
     <row r="971" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A971" t="s">
-        <v>769</v>
+        <v>680</v>
       </c>
       <c r="B971" t="s">
-        <v>44</v>
+        <v>278</v>
       </c>
       <c r="C971">
         <v>366</v>
@@ -13925,10 +13925,10 @@
     </row>
     <row r="972" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A972" t="s">
-        <v>940</v>
+        <v>942</v>
       </c>
       <c r="B972" t="s">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="C972">
         <v>960</v>
@@ -13936,10 +13936,10 @@
     </row>
     <row r="973" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A973" t="s">
-        <v>941</v>
+        <v>503</v>
       </c>
       <c r="B973" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C973">
         <v>801</v>
@@ -13947,10 +13947,10 @@
     </row>
     <row r="974" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A974" t="s">
-        <v>680</v>
+        <v>826</v>
       </c>
       <c r="B974" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C974">
         <v>696</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="975" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A975" t="s">
-        <v>942</v>
+        <v>406</v>
       </c>
       <c r="B975" t="s">
-        <v>131</v>
+        <v>312</v>
       </c>
       <c r="C975">
         <v>655</v>
@@ -13969,10 +13969,10 @@
     </row>
     <row r="976" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A976" t="s">
-        <v>503</v>
+        <v>839</v>
       </c>
       <c r="B976" t="s">
-        <v>36</v>
+        <v>237</v>
       </c>
       <c r="C976">
         <v>450</v>
@@ -13980,10 +13980,10 @@
     </row>
     <row r="977" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A977" t="s">
-        <v>826</v>
+        <v>865</v>
       </c>
       <c r="B977" t="s">
-        <v>285</v>
+        <v>66</v>
       </c>
       <c r="C977">
         <v>707</v>
@@ -13991,10 +13991,10 @@
     </row>
     <row r="978" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A978" t="s">
-        <v>406</v>
+        <v>785</v>
       </c>
       <c r="B978" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="C978">
         <v>155</v>
@@ -14002,10 +14002,10 @@
     </row>
     <row r="979" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A979" t="s">
-        <v>839</v>
+        <v>943</v>
       </c>
       <c r="B979" t="s">
-        <v>237</v>
+        <v>339</v>
       </c>
       <c r="C979">
         <v>453</v>
@@ -14013,10 +14013,10 @@
     </row>
     <row r="980" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A980" t="s">
-        <v>865</v>
+        <v>448</v>
       </c>
       <c r="B980" t="s">
-        <v>66</v>
+        <v>340</v>
       </c>
       <c r="C980">
         <v>919</v>
@@ -14024,10 +14024,10 @@
     </row>
     <row r="981" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A981" t="s">
-        <v>785</v>
+        <v>944</v>
       </c>
       <c r="B981" t="s">
-        <v>268</v>
+        <v>170</v>
       </c>
       <c r="C981">
         <v>63</v>
@@ -14035,10 +14035,10 @@
     </row>
     <row r="982" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A982" t="s">
-        <v>943</v>
+        <v>457</v>
       </c>
       <c r="B982" t="s">
-        <v>339</v>
+        <v>15</v>
       </c>
       <c r="C982">
         <v>203</v>
@@ -14046,10 +14046,10 @@
     </row>
     <row r="983" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A983" t="s">
-        <v>448</v>
+        <v>945</v>
       </c>
       <c r="B983" t="s">
-        <v>340</v>
+        <v>91</v>
       </c>
       <c r="C983">
         <v>608</v>
@@ -14057,10 +14057,10 @@
     </row>
     <row r="984" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A984" t="s">
-        <v>944</v>
+        <v>568</v>
       </c>
       <c r="B984" t="s">
-        <v>170</v>
+        <v>105</v>
       </c>
       <c r="C984">
         <v>608</v>
@@ -14068,10 +14068,10 @@
     </row>
     <row r="985" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A985" t="s">
-        <v>457</v>
+        <v>549</v>
       </c>
       <c r="B985" t="s">
-        <v>15</v>
+        <v>341</v>
       </c>
       <c r="C985">
         <v>424</v>
@@ -14079,7 +14079,7 @@
     </row>
     <row r="986" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A986" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="B986" t="s">
         <v>91</v>
@@ -14090,10 +14090,10 @@
     </row>
     <row r="987" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A987" t="s">
-        <v>568</v>
+        <v>947</v>
       </c>
       <c r="B987" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="C987">
         <v>447</v>
@@ -14101,10 +14101,10 @@
     </row>
     <row r="988" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A988" t="s">
-        <v>549</v>
+        <v>377</v>
       </c>
       <c r="B988" t="s">
-        <v>341</v>
+        <v>217</v>
       </c>
       <c r="C988">
         <v>869</v>
@@ -14112,10 +14112,10 @@
     </row>
     <row r="989" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A989" t="s">
-        <v>946</v>
+        <v>644</v>
       </c>
       <c r="B989" t="s">
-        <v>91</v>
+        <v>336</v>
       </c>
       <c r="C989">
         <v>437</v>
@@ -14123,10 +14123,10 @@
     </row>
     <row r="990" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A990" t="s">
-        <v>947</v>
+        <v>861</v>
       </c>
       <c r="B990" t="s">
-        <v>186</v>
+        <v>238</v>
       </c>
       <c r="C990">
         <v>739</v>
@@ -14134,10 +14134,10 @@
     </row>
     <row r="991" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A991" t="s">
-        <v>377</v>
+        <v>544</v>
       </c>
       <c r="B991" t="s">
-        <v>217</v>
+        <v>103</v>
       </c>
       <c r="C991">
         <v>949</v>
@@ -14145,10 +14145,10 @@
     </row>
     <row r="992" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A992" t="s">
-        <v>644</v>
+        <v>576</v>
       </c>
       <c r="B992" t="s">
-        <v>336</v>
+        <v>161</v>
       </c>
       <c r="C992">
         <v>996</v>
@@ -14156,10 +14156,10 @@
     </row>
     <row r="993" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A993" t="s">
-        <v>861</v>
+        <v>948</v>
       </c>
       <c r="B993" t="s">
-        <v>238</v>
+        <v>193</v>
       </c>
       <c r="C993">
         <v>536</v>
@@ -14167,10 +14167,10 @@
     </row>
     <row r="994" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A994" t="s">
-        <v>544</v>
+        <v>949</v>
       </c>
       <c r="B994" t="s">
-        <v>103</v>
+        <v>177</v>
       </c>
       <c r="C994">
         <v>394</v>
@@ -14178,10 +14178,10 @@
     </row>
     <row r="995" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A995" t="s">
-        <v>576</v>
+        <v>942</v>
       </c>
       <c r="B995" t="s">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="C995">
         <v>402</v>
@@ -14189,10 +14189,10 @@
     </row>
     <row r="996" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A996" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
       <c r="B996" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="C996">
         <v>366</v>
@@ -14200,10 +14200,10 @@
     </row>
     <row r="997" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A997" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B997" t="s">
-        <v>177</v>
+        <v>247</v>
       </c>
       <c r="C997">
         <v>635</v>
@@ -14211,46 +14211,13 @@
     </row>
     <row r="998" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A998" t="s">
-        <v>942</v>
+        <v>374</v>
       </c>
       <c r="B998" t="s">
-        <v>81</v>
+        <v>206</v>
       </c>
       <c r="C998">
         <v>534</v>
-      </c>
-    </row>
-    <row r="999" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A999" t="s">
-        <v>898</v>
-      </c>
-      <c r="B999" t="s">
-        <v>163</v>
-      </c>
-      <c r="C999">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="1000" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1000" t="s">
-        <v>950</v>
-      </c>
-      <c r="B1000" t="s">
-        <v>247</v>
-      </c>
-      <c r="C1000">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="1001" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1001" t="s">
-        <v>374</v>
-      </c>
-      <c r="B1001" t="s">
-        <v>206</v>
-      </c>
-      <c r="C1001">
-        <v>894</v>
       </c>
     </row>
   </sheetData>
